--- a/cif/xrd_dataset.xlsx
+++ b/cif/xrd_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,58 +453,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;60.772648706321775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.79708459463224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.983761022139738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.39337761762166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.53122381914707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.27758705481306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;58.394533571757584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.33331077699904;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.65689929911788;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.023763062872227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.82893975698549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.775801462704972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.656489559723644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.05089149357051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0036511261697503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6814505122236387;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;61.71935498619469;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7059661347712005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.774353239578225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.447220148636305;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8470068190669915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2272928086474926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.63796440768303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027656323171619;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.753177251239821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1092350722487083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006711517022958433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.882849482763727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.104753049243803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.438264344136202;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7283800533363085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;24.6169311038308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.190768451845193;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.842311679014182;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.062765364238978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.774806155047359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5119338876855415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.30584230736539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.5735617274677605;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.164437100860815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.093339663875549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12485391967458043;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7089302278520265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.62619591469617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.35021330221088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.8461156066668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.524822268851576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.085271392574146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.26038321145266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.07366108737206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.67746159894264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.131339666720727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.30293145938451;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.95704717876865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.538039521655765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.8412195877963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C2+, H+, I-, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>H10 Pb2 C2 I6 N4</t>
+          <t>Cs1 Pb1 I3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.52828462726179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.045068898127507;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.678936485623479;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.223480633253455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.508491666341683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.867345928235764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;66.58701855007425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.69884103738016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.733836235745876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.344880746319102;0.0;0.0;0.0;0.0;0.0;0.0;45.88701658915128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6496306377991288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.688345954972385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5559650225014248;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.64369666874347;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.23920985216254;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3704271445778926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866145413432432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.775186392842102;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027906450325038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.82739752935132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.013502308380877;0.0;0.0;0.0;0.0;0.0;4.089847938492492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7701842295411968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.053919883539968884;0.0;0.0;0.0;0.0;4.946085264257839;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.289123984510674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3628058763356408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5981656000683385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.91692767595923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4975250173077586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.008289436189099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.95050373164026;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.779793803293966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.59567027976471;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2535517230224706;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.827222201848171;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17974461035686817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7509259735931826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.36237320964535;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3050731398009465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27165112429040833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.327374506539868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.478140393568351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.89900231478634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.926795195156092;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.961950947495258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.41813456454129;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.80833430489296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.15413433530972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.6958635322375;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.127545057505414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.039546511286503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.064924223401945;0.0;0.0;0.0;0.0;0.0;0.0;37.29713420053079;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6209289045329114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.854145520961843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.727951432728949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.67518540435224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.311562913466393;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.560843503113833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8669413675337672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.67998931760477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.217274229432988;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.26184268052947;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.566646224191876;0.0;0.0;0.0;0.0;4.191430469109984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.693844138159333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7479672635010035;0.0;0.0;0.0;0.0;4.286494750343962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.342736077215513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9013257390317708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3997542452346496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.779610199335284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0400489625866163;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.544150459633421;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.937119106146305;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.11092142749906;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.3026067828498915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.991716826205682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6058915209941955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4896538121565404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.12025562754937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8237320400581756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8008491553945576;0.0;0.0;0.0;0.0;0.0;0.0;0.3908612051333921;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.658105288345571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.928896295784247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C2.90+, H+, H-, I-, N3-, Pb2+</t>
+          <t>C4+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>H28.8 Pb4 C4.16 I12 N4</t>
+          <t>Pb4 C4 I12 N4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.89900231478634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.926795195156096;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.96195094749526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.418134564541292;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.808334304892963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.15413433530973;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.69586353223748;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.127545057505419;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.039546511286506;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.06492422340195;0.0;0.0;0.0;0.0;0.0;0.0;37.297134200530806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6209289045329127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.854145520961842;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.727951432728951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.675185404352256;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.3115629134664;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5608435031138335;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8669413675337685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.679989317604775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.217274229432993;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.261842680529472;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.566646224191874;0.0;0.0;0.0;0.0;4.191430469109985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.693844138159334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.747967263501004;0.0;0.0;0.0;0.0;4.286494750343963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.342736077215515;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9013257390317715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3997542452346496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.77961019933529;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0400489625866165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.544150459633422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.93711910614631;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1109214274990595;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.302606782849896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.991716826205682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6058915209941964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4896538121565417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1202556275493702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.823732040058177;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8008491553945594;0.0;0.0;0.0;0.0;0.0;0.0;0.3908612051333923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6581052883455705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.928896295784245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4253437303144258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.093336590723283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.072603490828726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.847220821019913;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.801270000189106;0.0;0.0;0.0;0.0;0.0;53.72980826514702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.385160969937754;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.25722080378216;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.206156693067607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.784282596642976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644783246513427;0.0;0.0;0.0;0.0;0.0;0.0;5.293604117733204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.48789478726223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.37305444070712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.980384495666474;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005409773990299752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.453318879459646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.186425977281077;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.29203431899036;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1867988990078178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.163475643351548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47262675012240624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8900696199160283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4124014519671007;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.672242813522296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.06853054864994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.640501627087671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.642811023925522;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.825939626967634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.029484972127726626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.650315772166099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.111548250497705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.405740927478696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.44813857371752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.717194322875708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.322810373193491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.0092516936986495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0530985392480008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.849334056492541;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5790721962148917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2319236686436894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35442603190368316;0.0;0.0;0.0;2.353390259717607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8349613996179064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1866454611875357;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.42775668609656;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.449607551169957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4649097320281994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.356341972855747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.70200432199859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1073202234220405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2555333549865484;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.477009962987491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.375296718213747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.876816321399853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27021662140454106;0.0;0.0;0.0;3.702087614514763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.5211341066657535;0.0;5.226249818295049;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.438786375513013;0.0;0.0;0.0;0.0;0.8907950043797961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.526021720440355;1.5512655532245054;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9502662931406824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.360681544119106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.193671845171038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.306401748075629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.330621453048082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.035294964735323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.14987063256697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.333395659046227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5893604865570172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.147872823501456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011677028563446969;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.426109657697809;3.806359128823931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7209392724148382;0.0;0.0;0.0;0.0;0.8242653977650718;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6232623484996932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0598985712117501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.545261463259707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2643371200607176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5462115651938917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.596266300610673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4288144531289142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6243371119009555;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1051108552446662;0.0;0.0;0.0;0.0;0.0;0.0;0.23950523538506194;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2139889437602276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3543323028073793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.685807779907051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.953303135252368;0.0;0.0;0.0;0.0;0.0;0.4290336727223465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.43171114003563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36834872801081736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.219781497322809;0.9578469414643268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09108052834884077;0.0;4.297447996762094;0.0;0.0;0.0;0.0;0.0;0.0;2.0326512437818867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.134875636362593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5757697809268443;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0351851152920712;0.0;2.8249259059162872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.103520541873389;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0686713470772562;0.0;0.0;0.0;0.0;0.09874028933209862;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3705031460718565;0.0;0.0;0.0;1.3575027481289403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10123354374072413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5035907382996905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4893813348470977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4679891459375372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.267642817468812;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15293141957878895;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.111091980418312;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.424100669628872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.05121852510153323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0020723650727685495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8695061973898355;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.019080247273996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0898439699294708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1615200425812422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00632076600605236;0.0;0.0;0.4451844830488751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1859924531540296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7371111826842137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.014740871284207;0.0;0.0;0.0;0.0;0.0;0.0;0.4287405463491356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2130084526886181;0.0;0.0;0.0;1.0004767760014626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.645146404906514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6689411920742998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012247854306063172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2614480623685951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2435697592057031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2420019963045;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04015612435173573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0740565253969803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.512600326863562;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0309569723838963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C4+, I-, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pb4 C4 I12 N4</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.773877126944448;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.918719692807359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.129444759354337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012736043428641784;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.685094682098914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.83859011562238;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.28314490815014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.86347763169063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.10836574913644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.116556782994372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.456116436153805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.224934235327917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3096953987783565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.790718700126219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.032126310166966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.68887721574802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.122439108304278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.073665520872812;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9323011764375035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.37216479692273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6020999685850024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.739393765964715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3358787258675235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012764332343091014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.5609364084551505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.376342173392581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1160886447814682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5632101558848308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06523291078172767;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.442612551383859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.969025937904824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.554557167914703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6630605393585398;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9588117523155593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.689010040360985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1538999654720994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.709208272629822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.773877126944452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.918719692807358;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.129444759354337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012736043428641815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.685094682098915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.83859011562238;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.28314490815014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.86347763169063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.10836574913644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.116556782994373;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4561164361538053;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.224934235327915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30969539877835567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.790718700126217;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.03212631016696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.68887721574802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.122439108304278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.073665520872815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9323011764375013;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.37216479692273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.602099968585002;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.739393765964719;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3358787258675235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012764332343091014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.560936408455148;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.376342173392581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11608864478146824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5632101558848308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06523291078172769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.442612551383859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.969025937904824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.554557167914704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6630605393585399;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9588117523155584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.689010040360985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15389996547209928;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.709208272629824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,92 +521,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009461045502858513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;49.888825725401624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0019546915643997164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742021631657927;15.469691632012237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014269729963884134;0.0071414798922977245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4396467007517668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00570975109441738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.383784814738014;0.0;23.605801042420538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013443207101242955;0.05630629604317383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.270369376988757;0.0;28.25213506375039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.151093764835572;4.094706941340934;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006820167220230979;0.0;0.004718863723129362;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003914804672299471;0.0054307603519677256;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.73798434730613;0.0;35.374938786517426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.059892643228533715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.12540570960921;24.24484318240749;0.0;3.0084881639123044;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866345324380181;0.0;0.0;1.9808587959544786;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003424250437429976;0.0031024414618226973;0.008589890824676333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2534001075111448;0.0;0.0;0.12165776371663159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010112582961037857;0.0056131791098248075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.75324737485926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02309008733184311;0.0;0.0;0.003108937756116541;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8024713222552915;6.795979098592114;0.0;6.748734636680591;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004238179605176646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.380635414045028;0.0;2.363211599560143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004925324403456857;0.0;0.04876400714784503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;60.77264870632179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.797084594632233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.983761022139738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.39337761762166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.531223819147066;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.27758705481306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;58.394533571757584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.33331077699903;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.65689929911789;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.023763062872224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.82893975698546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.775801462704972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.656489559723646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.050891493570512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0036511261697516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6814505122236392;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;61.71935498619469;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7059661347712005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.774353239578225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.44722014863632;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8470068190669915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2272928086474932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.63796440768303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027656323171619;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.753177251239824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1092350722487083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0067115170229584365;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8828494827637265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.104753049243806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.438264344136202;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7283800533363085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;24.6169311038308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.190768451845193;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.842311679014183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.062765364238978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7748061550473586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5119338876855415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.305842307365395;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.57356172746776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.164437100860817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.093339663875549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12485391967458025;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7089302278520266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Br-, Pb2+</t>
+          <t>C2+, H+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pb2 Br6</t>
+          <t>H10 Pb2 C2 I6 N4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.855194795400543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897998266146533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.462554196591306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6752167021877433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.07816317101318;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.93471624641706;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9750452629247827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.733482843644126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.66337721582031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.499183620762416;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.790539891450486;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.79963375153494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.62766841137665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4848158596664996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.507906845979402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.48794818661109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.794310882076141;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Br-, Cs+</t>
+          <t>Br-, C2-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cs1 Br1</t>
+          <t>Pb1 C0.9996 Br3 N0.9996</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5685521783952966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.742609235619735;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.43953883294203;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4525964440109016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.569221434083417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.518511060438605;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.051396951527952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2979424380920084;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.898710883408596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.26050735320983;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.814603907097879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.731937099293933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.189893908003967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353585609659415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.851057294882636;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.837314774873962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.657040014737966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.194777146178573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.52463075335405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.050402415855707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.5986445945737415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9140171112568383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.680998978849585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.481380025949363;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.469814860603024;0.0;0.0;17.63605587518571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.16596696908413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.040185667373672;0.0;0.0;0.0;0.0;10.407322072792898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6042133188893986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.14815714089349;0.0;0.0;17.495411262235258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.402243145924597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.090341194816794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10917043611333505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5568182182255637;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.371821116670799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0375165540688736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.347301154565482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.960404180532284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.037101007569485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2826774507450034;0.0;0.0;0.0;0.0;0.004516956878621283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.953942231331314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0974204086048119;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5237758501606984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9952434153213423;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3242014674160603;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.29825144541293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.87606227119006;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.756055213998247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24419271856300437;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.615385484231149;0.0;8.316639183358213;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3024645983745573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.431389162252932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.512255800896288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.244879091702702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3880117832550933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3890500622388124;0.0;0.0;0.0;0.0;0.0;0.0;23.20993260640489;4.6831566232806185;0.07545713551358137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.124841904052521;0.0;0.08110075478857336;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.583691848118544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.442645876751164;0.0;2.3004161254554165;0.0;1.6269493689715917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.191359154077284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.006383607633172;0.0;0.0;0.0;0.0;0.0;0.0;5.704077525419668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.035301112102985165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5019590911314668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2025825541486184;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.224049753157222;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3454682976285275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2968944383048435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9353917320651972;0.0;1.3104707451184487;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4273943588974702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.466707757454443;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.721382340016674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8339387394260286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3624915565247668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.387171578070033;0.0;0.0;0.0;0.0;4.39522042739003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5013549435177866;0.0;0.0;0.0;0.0;0.0;5.230332521016073;0.0;0.0;0.0;0.0;0.0;0.0;7.523101466567164;0.5610468022771498;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5527382424331515;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.84113442540366;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.164113643516882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1427475299438;8.405502250682407;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3052950753105605;1.2471717441216905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.671624159069955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008390724659142743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.276978382077559;0.0;0.5099046503688537;0.0;0.0;1.952076024795449;0.0;0.0;0.0;4.124989146237301;0.0;0.0;0.0;0.0;0.0;0.0;0.003930518913876268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9214445014365502;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.167391394210556;4.542160534335991;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9048184481821411;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0725321924271114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11150013472093427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.417133484657347;0.0;0.0;0.0;0.0;0.0;0.0;0.02474195497998439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08132286283391621;0.0;3.5998962943086164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010125002515890522;0.0;3.2614073691224235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742570678072801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.875860428672764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0353081755257416;0.0;0.0;0.0;0.0;0.0;9.95360557399448;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.1360680849795095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0417952266909922;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005395962466747806;0.0;0.0;8.81162279339849;0.0;0.0;0.0;0.0;0.0;0.0;1.277052038434986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5157666472489378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9167596279171472;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.653965426833119;0.0;0.10752453707980404;0.0;0.0;0.0;0.0;0.0;1.3339990853751935;0.3040700157892429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2566402322802396;0.0;0.008065731605772904;0.0;0.011648032861174511;0.0;0.0;0.0;0.0;0.0;0.0234283313027908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0025902926472597667;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013749855189462562;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7620031371172473;0.0;0.0;0.0;4.537041336716278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13128261020582724;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.14116812629887313;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08254100333121277;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.127143477708937;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.73798255344908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7707122877913652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;65.47238456471902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;68.97773165853332;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.213939807422694;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;42.008412708290166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.96638119945512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9334972433102315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15265898309964243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.38637563365237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.15282329577966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.946725357152708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>Br-, C2+, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Pb1 C1 Br3 N2.000004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49321529162394734;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.78282445920826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.76751592027251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0321593792700816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.548256569757978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.41434722473219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.927959625915378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9334434132622103;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.815250326149808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.129729729250952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.185934393624933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.988162866425572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.379407597688367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.35378145307475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.724160938294176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.459916298985766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.79044861701488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.4195987241093;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.62462861032594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.537694642530122;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.856937916859828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.77005643716127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.398537081668898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.429822938534073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6736251965643616;0.0;0.0;17.739945737987547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.30023487405611;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.90031977222341;0.0;0.0;0.0;0.0;10.62468762305112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.358393798703669;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.15380554159148;0.0;0.0;17.60137590482353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.337722275609078;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.620066025045794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04968038772028877;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.522811959800133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.394976869590604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9826688140297017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.398505311960457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.911019673253394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7514427716386742;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5509662241108937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.440038552547456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12329618437174764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.665324464557418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9855206356198408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.302560082673864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.503802461547725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.84397939566836;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.214946460834565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2987540519967005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.573954529097393;0.0;8.187100892646617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3628869253769234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644764123722574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.05458280032083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.033914558890271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.297841139490081;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4701619253480915;0.0;0.0;0.0;0.0;0.0;0.0;23.16550824271532;5.109478520588334;0.07484610862474178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6728573009262435;0.0;0.07816235529661321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.755384102594681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.514903881862156;0.0;2.4112471109389997;0.0;1.2560934947087885;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.113387129174327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.994600501105499;0.0;0.0;0.0;0.0;0.0;0.0;5.885409777757111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09769144546790796;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5182731554303428;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8296533976891868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.867257243981802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.284070336372159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3113785011186798;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7422535104990367;0.0;1.4227350362621174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4655731129261889;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.463316461872721;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.844182185188678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7436263146831542;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3525810855615575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.933212090249408;0.0;0.0;0.0;0.0;3.945567684083461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5469364164694683;0.0;0.0;0.0;0.0;0.0;4.650061680425401;0.0;0.0;0.0;0.0;0.0;0.0;7.325634779478159;0.5691758487740186;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5668861631327824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.04200442104429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.336888219927403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.104781026126956;8.265887072727248;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.33259101960610155;1.051475627212853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.718496832558779;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02430005270266327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.975629171645432;0.0;0.5154406790757554;0.0;0.0;2.290285630526433;0.0;0.0;0.0;4.182405083798684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9329776619570822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6221305581861365;4.031152834549525;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8957927805497687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.00638180757124;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15672953915338858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3098308055263295;0.0;0.0;0.0;0.0;0.0;0.0;0.014449610605228034;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03747035585100013;0.0;3.5996293381128344;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02348091966024362;0.0;3.2838964823765204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.977412193605425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.432406561951828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9204520179523112;0.0;0.0;0.0;0.0;0.0;9.832935396468548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.062006137284682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02993778200469577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0016647653796353487;0.0;0.0;8.539994752515108;0.0;0.0;0.0;0.0;0.0;0.0;1.117261287408778;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47588811109234314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1222759938662787;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2315717962467623;0.0;0.04690615252351033;0.0;0.0;0.0;0.0;0.0;1.193109427038603;0.30931069116444554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.38178161106873937;0.0;0.0;0.0;0.02686217431746468;0.0;0.0;0.0;0.0;0.0;0.01314317527440818;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0021854261958052556;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.016680478286239756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6162806624952095;0.0;0.0;0.0;4.539629860162514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13713917535722991;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2555721763559353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11481698139778546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2486490866647943;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.855194795400543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897998266146533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.462554196591306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.675216702187745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.078163171013166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>Br-, Cs+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cs4.0 Pb4 I12</t>
+          <t>Cs1 Br1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028336427981097805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011043385652106075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.95920971542892;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013976837811159729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.70856276204145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.783595740900807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.910289162530205;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.007008847625399531;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003613450943560961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0022906364794585475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013447112205585909;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.598878409653545;0.0;0.0;0.0;0.0;0.0;0.0;0.872790069247658;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3477426938729165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.107659006054533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9175490887128244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9834704148636444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.448039470013682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49884590253282596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.083965293893544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.0479978740445794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.18556346315187;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.8839779942351775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.768447881992452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7078085330326696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013831480749815028;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.72343220649055;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002730265233501933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.333707338689518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006985007299587518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1504834521762803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.242100466184198;0.0;0.0;0.0;0.0;0.0;2.7528347653404523;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.25502472253488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0949006000063495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.419530281591804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6556313980223916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00299272404378009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0018857459754541461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0982636822901206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014440593774403736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010144476458161015;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.875587869257327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6561688563360714;0.0;0.0;0.0;0.1546453424163733;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2299278572327378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35696839604107483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.501107663632962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7028865711058739;0.0;0.0;0.7060100192439311;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8214244539619914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3654918510322999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.933052626691588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2435971004482174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29155307794613805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3059500942182152;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4159910338536905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0035106985007440387;0.24581827312558266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4256256472303843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4816372320480293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10094024042032561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.278852474615123;0.0;0.0;0.0;0.0;0.0;0.0;0.0022507158826124514;6.560033928363689;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.697558611658447;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004770474883376442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10875279849085083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.31338654988808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005170845096675827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013102863136721338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.005197305924376;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.058493654818457114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.597678279620933;0.0;0.0;0.0;0.9244580588974816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7375590720047578;1.6715969028257227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010405805960550783;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6118059072728089;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.16326376880650414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cs+, I-</t>
+          <t>I-, Pb2+</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cs1 I1</t>
+          <t>Pb7 I14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897370791994712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.751053449228106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.352736696638583;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.7879874052104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.16610218564126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.00440909282796;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.190784473460633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.884685923194326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.5140175874321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.29060110042478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.280285448052616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;90.55304011537464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1182885126085997;0.0;0.0;0.0;0.0;6.311724690919229;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0506556556458424;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.016761297418519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.044033301990808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.815111671963905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.272390177209864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.27029276885454;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.581812272979285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.13609852061715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3108403803987264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.380382702574833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.555898909522581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3458918896221277;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5424668424622743;0.0;0.0;0.0;0.0;0.0;0.0;2.326789794180127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.619272050962582;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.903349414238926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.419943553623995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.872062540143118;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.962252016000288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8536225417091474;0.0;0.0;0.0;0.0;0.0;0.20215240231107567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.817380564999269;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.043860967154665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07820927805024455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.415374387394086;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.000986311493698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01312964915175493;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.604238807500822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.78851863466263;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7452254433816332;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.692988834884684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2153966801908753;0.0;0.0;0.0;0.0;3.331883934354073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.896686188553478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.260531757500746;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.292842531984585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.482318782129617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.243041788121726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.675382627135594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1244179209440273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.42493985573682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.324374532380244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6934222164274715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4333731684209876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18771834662860204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4372748671903381;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.995563038880815;0.0;0.0;0.0;0.0;0.0;1.8555257526633926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8973707919947116;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.751053449228095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.35273669663858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.7879874052104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.16610218564126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.00440909282798;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.190784473460633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.88468592319433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.5140175874321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.29060110042478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.28028544805262;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;90.55304011537464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1182885126085997;0.0;0.0;0.0;0.0;6.311724690919232;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.050655655645843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.016761297418519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.044033301990808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.815111671963905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.272390177209864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.270292768854537;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.58181227297929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.13609852061715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3108403803987263;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.380382702574831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.555898909522582;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3458918896221275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.542466842462274;0.0;0.0;0.0;0.0;0.0;0.0;2.326789794180127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.61927205096258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.903349414238924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.419943553623995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8720625401431168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.962252016000288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.853622541709148;0.0;0.0;0.0;0.0;0.0;0.20215240231107567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.817380564999276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.043860967154665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07820927805024455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4153743873940865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.000986311493698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013129649151754982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.604238807500822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.788518634662633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7452254433816328;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.69298883488468;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2153966801908753;0.0;0.0;0.0;0.0;3.3318839343540727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.896686188553478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.260531757500747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.292842531984585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.482318782129616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.24304178812172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.675382627135594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1244179209440273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.42493985573682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.324374532380244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6934222164274715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4333731684209875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18771834662860204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.437274867190338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9955630388808157;0.0;0.0;0.0;0.0;0.0;1.8555257526633926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,204 +623,204 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.892100782034;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.36842227744872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15010666212683577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.812450240445866;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6398283336982128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3060859105933056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4194123977508855;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.352974196391145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.542998838425575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02790629927933171;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.47474450407918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;87.1935838247863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.124349334258987;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.00000000000001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.250349190545997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8781129434087406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.181017619378312;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.240121048513172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.38069503677355;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.881260208340873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.93786929910123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.374572341000526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.543559445232923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.866060166313142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.948038027622949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.977599675529309;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;45.77249647255271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9205410246211845;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.821909286877954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.449767657229229;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.953727983274392;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3312765737101633;0.0;0.0;0.0;0.0;0.0;2.2384684757304485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2524948692967873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.617410705303378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6665328996238395;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.534670181779703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.5240162865969475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.789833381366516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.849628981180225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6354502078375766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.609123765019081;0.0;0.0;25.991592235356656;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.365261517901361;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3968978622954339;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6575125425327655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36597722577213243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.582445143874329;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.490485358661953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09027233846597753;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.532100135051284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4224251640123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.060652925558271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17650774363558067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8334203834630524;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.651975146405261;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1449745644241621;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.307885431257723;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.266112117807257;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.480570184423799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.947664894740094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023181342589849024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3433282285162697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.989730471927714;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04142720506702165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.285205080730663;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1684093234703954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.23994204486358878;11.217811784487427;0.0;0.0;0.0;0.0;4.335109352921521;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9699476218978544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22926235489253172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1446635173655215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29927573853309464;0.0;0.0;0.0;0.0;2.65277568821177;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.465151088532101;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75982561127162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2119309606443935;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.60995258328955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2737318814061425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5468705098940783;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0067515994900402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.52828462726181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.045068898127509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.678936485623481;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.223480633253452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.508491666341687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.86734592823578;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;66.58701855007426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.698841037380165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.73383623574588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.34488074631911;0.0;0.0;0.0;0.0;0.0;0.0;45.887016589151294;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6496306377991297;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.688345954972385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.555965022501427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.64369666874349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.239209852162546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.370427144577893;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866145413432432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.775186392842103;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027906450325039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.82739752935132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.013502308380879;0.0;0.0;0.0;0.0;0.0;4.089847938492494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7701842295411969;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.053919883539969064;0.0;0.0;0.0;0.0;4.946085264257839;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.289123984510676;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3628058763356408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5981656000683384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.916927675959233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4975250173077588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.008289436189098;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.950503731640258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.779793803293964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.595670279764713;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2535517230224715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.827222201848172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1797446103568684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.750925973593183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.362373209645351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.305073139800946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27165112429040833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.327374506539869;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.478140393568353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>C2.9+, H+, H-, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cs24 Pb6 Br36</t>
+          <t>H28.8 Pb4 C4.16 I12 N4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.81784853925775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07830382568385455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.156171665747951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2229930964120586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.387929260447012;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.011166907608057;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.229203713710492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75789219892827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.00000000000001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.348525616806919;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1204382389453857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.679264346293813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.08688054067553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.31825934440595;5.013528376836168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.36218448001529;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.199465677769433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.538371929170967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9039961920859464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.779469905310927;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.425638733439765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2187119448921209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7371552597099587;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1290709126506875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.440235601163072;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.07078581322286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.112433763533696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.67241813784944;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.713448169179472;8.12218990087251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0899626205990314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.070470142794232;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5001628367356807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1747984697610154;0.1936412999520206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0037481013419296133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39923264542519543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5965382659987546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.119316847935732;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.62033608410165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2125125518949226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17934651870295945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3374711494488807;1.6958288347308537;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02534098097334338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.106017909974538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3623481752558799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.506010774666147;0.0;0.0;0.0;0.0;0.0;0.0;0.4152668314914623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.825155288517756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.760611155485428;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.049030089122817554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0024805528009063027;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04003121885180433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6328628239096705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0125833289337143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004310704743095532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0033892413724415;12.975578013575504;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028298038313784964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08410431351874548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.68513952760429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013280362120851685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.29620502146906;35.105733967028335;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01997941330534164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.026103374463678237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.463611496582948;2.0794969732055284;0.9881349482216337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.017084797002358397;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025537842646877532;0.02927093384756123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008027862834102732;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.17226967590623;30.304252628862425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00929976870388009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012021653674485652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.444945092899188;0.0;16.51255833663142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0410446101898616;0.9467543031568292;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014846120864345612;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010743989488864404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7006058960438837;3.0770889454365613;1.5229768459234725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002904316309698418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014500217472221544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.68584828609278;0.0;15.884552416561183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024863867453332033;0.0;0.0;0.001140233463007121;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.200562547439485;0.0;9.19731947748094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013370950761657433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6392389073191498;0.5026963436600578;0.5430370696307326;0.5259157525760019;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008455748899542717;0.0;0.01158024098017041;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01112898519038598;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023344853037510393;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001427507240564728;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.295021812253891;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0039765990243121755;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001502622626099979;0.0;0.0;0.003368987303830094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8724118761392146;5.9390547995088445</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>C2+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cs4 Pb8 Br20</t>
+          <t>Pb3 C3 I9 N6.03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.73798255344909;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.770712287791365;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;65.47238456471902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;68.97773165853333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.213939807422697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;42.00841270829018;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.96638119945512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9334972433102315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1526589830996425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.386375633652358;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.15282329577966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.946725357152708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.799312027524952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.319815436208234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.594858895056817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02605015942579995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.196757296862879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;67.50269585790801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.06208809711083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.60515504271124;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;49.312350222584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.756041155605168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9010833399351519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6271669685187287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2509977191090378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.269668900713379;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.094169620501773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.7667725028146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.820198775759938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.131687999250861;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9168347848626914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.4343577590584236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.427758363020308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.603416135778609;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.073804754963722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001914810617296404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.504500966443883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.56762591499483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04365510651327237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45618415494266534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11204230674419333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.698799593011438;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.294637831890899;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.255076221097293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49658050194423287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7087427029989926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.128919787111293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01703455169988997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.63177919956874;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41058780201542955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9888955470052752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Br-, C2+, N3-, Pb2+</t>
+          <t>C2+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pb1 C1 Br3 N2.000004</t>
+          <t>Pb2 C2 I6 N4.02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.934716246417064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9750452629247827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.733482843644126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.66337721582031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.499183620762413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.79053989145048;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.79963375153494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.62766841137665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4848158596664994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.507906845979402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.487948186611089;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.794310882076147;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5685521783952967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.742609235619735;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.43953883294203;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4525964440109016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.569221434083417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.51851106043859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.051396951527952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.297942438092009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.898710883408596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.26050735320983;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.814603907097879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.731937099293933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.189893908003967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353585609659415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.851057294882647;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.837314774873974;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.657040014737966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.19477714617857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.52463075335405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.05040241585571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.5986445945737415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9140171112568516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6809989788496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.481380025949356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.469814860603024;0.0;0.0;17.636055875185704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.165966969084131;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.040185667373672;0.0;0.0;0.0;0.0;10.407322072792896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.604213318889399;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.14815714089349;0.0;0.0;17.495411262235265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.402243145924597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.09034119481679;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10917043611333486;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.556818218225563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.371821116670799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.037516554068873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.347301154565482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.960404180532284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0371010075694813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2826774507450036;0.0;0.0;0.0;0.0;0.004516956878621283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9539422313313026;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09742040860481266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5237758501607024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9952434153213426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3242014674160602;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.29825144541293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.87606227119006;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.756055213998247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24419271856300215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.615385484231149;0.0;8.316639183358213;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3024645983745573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.43138916225293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.512255800896287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.244879091702701;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3880117832550933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3890500622388124;0.0;0.0;0.0;0.0;0.0;0.0;23.20993260640489;4.6831566232806265;0.07545713551358137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.124841904052521;0.0;0.08110075478857338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.583691848118544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.442645876751164;0.0;2.3004161254554165;0.0;1.6269493689715908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.191359154077285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.006383607633172;0.0;0.0;0.0;0.0;0.0;0.0;5.704077525419668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03530111210298568;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5019590911314672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2025825541486188;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.224049753157209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3454682976285275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.296894438304848;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9353917320651972;0.0;1.3104707451184539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4273943588974707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4667077574544406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.721382340016674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8339387394260286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3624915565247668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.387171578070033;0.0;0.0;0.0;0.0;4.3952204273900195;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5013549435177866;0.0;0.0;0.0;0.0;0.0;5.2303325210160745;0.0;0.0;0.0;0.0;0.0;0.0;7.523101466567164;0.5610468022771461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5527382424331462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.84113442540366;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.164113643516896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.142747529943799;8.405502250682412;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3052950753105607;1.247171744121692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.671624159069955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008390724659142975;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.276978382077559;0.0;0.5099046503688541;0.0;0.0;1.9520760247954496;0.0;0.0;0.0;4.124989146237301;0.0;0.0;0.0;0.0;0.0;0.0;0.003930518913876065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9214445014365463;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.167391394210556;4.542160534335993;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9048184481821442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.072532192427111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11150013472093427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.417133484657348;0.0;0.0;0.0;0.0;0.0;0.0;0.02474195497998439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08132286283391583;0.0;3.599896294308624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010125002515890527;0.0;3.2614073691224212;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742570678072801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.875860428672763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0353081755257394;0.0;0.0;0.0;0.0;0.0;9.953605573994473;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.13606808497951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.041795226690992233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005395962466747612;0.0;0.0;8.811622793398497;0.0;0.0;0.0;0.0;0.0;0.0;1.2770520384349882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5157666472489367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9167596279171462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.653965426833118;0.0;0.10752453707980379;0.0;0.0;0.0;0.0;0.0;1.333999085375198;0.3040700157892431;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25664023228023963;0.0;0.00806573160577294;0.0;0.01164803286117451;0.0;0.0;0.0;0.0;0.0;0.02342833130279074;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002590292647259588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01374985518946285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7620031371172518;0.0;0.0;0.0;4.537041336716278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1312826102058273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.14116812629887315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08254100333121264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1271434777089375;0.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Br-, C2-, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pb1 C0.9996 Br3 N0.9996</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.049030089122817554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00248055280090626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04003121885180435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6328628239096705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012583328933714272;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004310704743095561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0033892413724415;12.975578013575504;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028298038313784968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08410431351874553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.68513952760429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01328036212085157;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.29620502146907;35.10573396702833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01997941330534164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02610337446367823;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4636114965829483;2.0794969732055284;0.9881349482216337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01708479700235857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025537842646877543;0.029270933847561298;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008027862834102766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.172269675906218;30.304252628862425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009299768703880105;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012021653674485612;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4449450928991885;0.0;16.51255833663142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0410446101898616;0.946754303156829;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014846120864345617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010743989488864384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7006058960438837;3.0770889454365618;1.5229768459234725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002904316309698424;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014500217472221591;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.685848286092779;0.0;15.884552416561183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024863867453332085;0.0;0.0;0.0011402334630070882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.200562547439485;0.0;9.197319477480939;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013370950761657436;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6392389073191499;0.5026963436600578;0.5430370696307325;0.5259157525760019;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008455748899542747;0.0;0.011580240980170442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011128985190385982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023344853037510594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014275072405646985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.295021812253891;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0039765990243121815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0015026226260999806;0.0;0.0;0.003368987303830126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.872411876139214;5.9390547995088445</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49321529162394745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.78282445920826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.76751592027251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0321593792700816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.548256569757978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.41434722473219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.92795962591538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.93344341326221;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.815250326149808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.129729729250952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.185934393624933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.988162866425572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.379407597688367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353781453074753;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.724160938294187;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.459916298985764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.790448617014878;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.419598724109303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.62462861032594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.53769464253012;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.856937916859827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7700564371612693;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.398537081668897;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.429822938534073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6736251965643616;0.0;0.0;17.739945737987547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.30023487405611;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.90031977222341;0.0;0.0;0.0;0.0;10.62468762305112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.358393798703669;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.153805541591478;0.0;0.0;17.601375904823534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.337722275609067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.62006602504581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04968038772028876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.522811959800133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3949768695906033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9826688140297017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.398505311960457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.911019673253394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7514427716386742;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5509662241108944;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.440038552547455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12329618437174769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6653244645574186;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9855206356198405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30256008267386414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.503802461547718;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.84397939566837;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.214946460834565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2987540519967033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.573954529097393;0.0;8.187100892646617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36288692537692346;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644764123722574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.054582800320833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.033914558890284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2978411394900804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4701619253480915;0.0;0.0;0.0;0.0;0.0;0.0;23.165508242715326;5.109478520588334;0.07484610862474178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6728573009262435;0.0;0.07816235529661322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.755384102594681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.514903881862156;0.0;2.4112471109389997;0.0;1.2560934947087883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.113387129174328;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.994600501105498;0.0;0.0;0.0;0.0;0.0;0.0;5.885409777757111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09769144546790792;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5182731554303427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8296533976891868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.867257243981814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.284070336372159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3113785011186776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7422535104990367;0.0;1.422735036262117;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4655731129261889;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.46331646187272146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.844182185188678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7436263146831544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3525810855615575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.933212090249408;0.0;0.0;0.0;0.0;3.9455676840834637;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5469364164694683;0.0;0.0;0.0;0.0;0.0;4.650061680425399;0.0;0.0;0.0;0.0;0.0;0.0;7.325634779478159;0.5691758487740188;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5668861631327825;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.04200442104429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.336888219927405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.104781026126954;8.265887072727253;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3325910196061016;1.0514756272128531;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.718496832558779;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02430005270266359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.975629171645432;0.0;0.515440679075756;0.0;0.0;2.290285630526433;0.0;0.0;0.0;4.182405083798684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.932977661957082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6221305581861358;4.031152834549526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8957927805497682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0063818075712394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15672953915338866;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.309830805526331;0.0;0.0;0.0;0.0;0.0;0.0;0.01444961060522804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.037470355851000524;0.0;3.599629338112838;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02348091966024358;0.0;3.28389648237652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.977412193605425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.432406561951829;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.920452017952314;0.0;0.0;0.0;0.0;0.0;9.832935396468551;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.0620061372846825;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02993778200469577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0016647653796353;0.0;0.0;8.539994752515113;0.0;0.0;0.0;0.0;0.0;0.0;1.1172612874087766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4758881110923413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.122275993866279;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.231571796246761;0.0;0.04690615252351033;0.0;0.0;0.0;0.0;0.0;1.1931094270385998;0.3093106911644457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3817816110687394;0.0;0.0;0.0;0.026862174317464675;0.0;0.0;0.0;0.0;0.0;0.01314317527440816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0021854261958052933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.016680478286239763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6162806624952095;0.0;0.0;0.0;4.539629860162514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13713917535722994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25557217635593565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1148169813977855;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2486490866647943;0.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C2+, I-, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pb3 C3 I9 N6.03</t>
+          <t>Cs4.0 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4253437303144258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.093336590723283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.072603490828726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.847220821019914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.801270000189106;0.0;0.0;0.0;0.0;0.0;53.72980826514703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.385160969937758;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.25722080378216;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.206156693067603;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.784282596642976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644783246513425;0.0;0.0;0.0;0.0;0.0;0.0;5.293604117733205;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.48789478726223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.37305444070712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.980384495666467;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005409773990299751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.453318879459639;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.186425977281072;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.29203431899036;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1867988990078178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.163475643351548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47262675012240585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8900696199160287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.412401451967102;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.672242813522296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.06853054864994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.640501627087671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.64281102392552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8259396269676325;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02948497212772617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.650315772166099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.11154825049772;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.405740927478696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.44813857371752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7171943228757085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.32281037319349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.009251693698653;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.053098539248003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8493340564925391;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5790721962148924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.231923668643689;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35442603190368316;0.0;0.0;0.0;2.3533902597176066;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8349613996179064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1866454611875326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.427756686096558;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.449607551169956;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.464909732028201;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.356341972855747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.70200432199859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1073202234220405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2555333549865484;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.477009962987491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.375296718213747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.876816321399853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27021662140454134;0.0;0.0;0.0;3.702087614514763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.521134106665751;0.0;5.226249818295049;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.438786375513011;0.0;0.0;0.0;0.0;0.8907950043797961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.526021720440355;1.551265553224505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.950266293140683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.360681544119106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.193671845171038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.306401748075629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.330621453048082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.035294964735327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.14987063256697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.333395659046224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5893604865570132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.147872823501456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011677028563446972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.42610965769781;3.806359128823928;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7209392724148397;0.0;0.0;0.0;0.0;0.8242653977650715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.623262348499692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0598985712117501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.545261463259707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2643371200607176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5462115651938917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.596266300610672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.42881445312891453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6243371119009555;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1051108552446673;0.0;0.0;0.0;0.0;0.0;0.0;0.2395052353850623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2139889437602276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3543323028073793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.685807779907051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.953303135252368;0.0;0.0;0.0;0.0;0.0;0.4290336727223466;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.43171114003563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36834872801081736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2197814973228094;0.9578469414643243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09108052834884056;0.0;4.297447996762094;0.0;0.0;0.0;0.0;0.0;0.0;2.0326512437818853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1348756363625925;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5757697809268425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.035185115292071;0.0;2.8249259059162903;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.103520541873389;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0686713470772564;0.0;0.0;0.0;0.0;0.09874028933209868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3705031460718565;0.0;0.0;0.0;1.3575027481289386;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10123354374072552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5035907382996858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4893813348470961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4679891459375372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.267642817468814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1529314195787877;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.111091980418308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.424100669628872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.051218525101533206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0020723650727685495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.869506197389834;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.019080247274001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08984396992947088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1615200425812422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006320766006052365;0.0;0.0;0.4451844830488751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1859924531540291;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7371111826842145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.014740871284207;0.0;0.0;0.0;0.0;0.0;0.0;0.42874054634913544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21300845268861807;0.0;0.0;0.0;1.000476776001462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6451464049065136;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6689411920742995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012247854306062999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.26144806236859597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2435697592057035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2420019963045;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04015612435173547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0740565253969794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.512600326863561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0309569723838963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.882445951004325;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.262296015632835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.34222739922125384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.260040859107924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.151585116083099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.156350714088056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.549725791299846;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.31672165286228;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.777127088940143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24595427352636123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.043283609699813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.759931815391444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.14883561129354;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.38211808733963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0976610569766563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>I-, Pb2+</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Pb1 I2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.799312027524952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.319815436208234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.594858895056816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.026050159425799968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.196757296862879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;67.50269585790801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.06208809711083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.605155042711246;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;49.312350222583994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.75604115560517;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9010833399351518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6271669685187287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25099771910903823;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2696689007133815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.094169620501773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.766772502814604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.820198775759938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.131687999250863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9168347848626914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.4343577590584236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4277583630203097;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.60341613577861;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.073804754963722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001914810617296409;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.504500966443879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.56762591499483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.043655106513272326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45618415494266534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1120423067441933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.698799593011437;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.294637831890899;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2550762210972946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49658050194423287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7087427029989937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.128919787111291;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01703455169988997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6317791995687405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41058780201542955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9888955470052752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12556884509521388;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.061362304580403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.891447628541655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5883575676679595;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.972189526393894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.89001233344737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.880662199133383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3721012892140056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.810445852566163;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.508099063904945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.26826360622011;0.0;3.750882862974013;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.55218472776664;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.278664253745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.457301637753215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.375309489405967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.489610539970627;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.18254272402296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;77.62166986559109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.743284917866098;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.456121634550445;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3016641861440021;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.240569480148657;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6471318470628602;0.0;0.0;0.0;0.0;0.0;0.0;15.910509762239206;0.0;0.0;26.90753170657487;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.699811105561231;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.027963184605854;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.51207576810145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.422375484686546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.521540292410998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.122773111546977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.1637947656673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.74925211639746;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10343919565513865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.996916319318101;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.256399083089627;0.0;0.0;1.8268394297526844;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2220496446445055;0.0;0.0;0.0;0.0;2.889320529480782;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9943330770037873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.019164094216327678;1.07281751863858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01983457699767473;0.0;3.3881408696357904;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6462096476684593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4158438120174546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24865790113104821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.557993430389857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;70.72642383401929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18676883344127118;0.0;0.0;0.0;2.2944667155414304;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.491572406606474;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.643124412895509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.5034675127460835;0.0;0.0;0.0;0.21515255532962033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.97195803487008;0.0;5.621022384953653;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.835955297312082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6822444439328001;0.0;0.0;2.762771822525175;0.0;1.320079336776447;0.0;0.0;0.0;0.0;21.807094980050902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.182718480155525;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.744696273208437;0.0;0.0;0.028947060249800996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2227120988818543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.74687249611407;0.0;0.0;0.0;0.0;0.0;0.0;7.546780722955549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.36646519032634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.078418417200323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.638443818024898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002855557128091835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.7877981724977654;0.0;0.0;0.9828975742006502;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.338641005621816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3003449783622274;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7052720483540916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7400944471481776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6411344703081652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6452257531707624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.341983079463984;0.0;0.0;0.0;0.0;0.3080116350414024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.409503399160553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8707110323377125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8632659726624451;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.025746799489674;0.0;3.9130449915996253;0.0;0.0;1.6854364930492791;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5994388836335067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.890448536700234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.374885783937371;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.09222897330709;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9905889425811125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7629052273966931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3432573060113593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0026769413552940875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.367812610591156;0.0;0.6306149477704671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008651743810155842;0.0;0.0;1.2236707564743692;0.0;0.0;0.0;0.0;0.0;0.0;3.7402587776789162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.475013329249532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.207383993649951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.300466027046731;0.0;1.7018377220466434;0.0;0.0;0.0;0.0;0.0;0.0;3.0474390090921455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17431153172382444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001425120072571191;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6393060701070707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.817418466425513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.871164187797334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.54305370307125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.130163247680047;10.195532116834874;0.0;0.0;3.6982037676712607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.112111128397151;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03757508973411821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.779057340658831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6361160798452008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4255756348377136;0.0;0.0;0.0;0.0;0.0;0.9938683607967042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6815872985801729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.553072938884863;0.0;0.4189686404177421;0.4164466801367465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.275061841602836;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024373531050464945;0.285436681427447;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08800097893129769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15782345129649256;0.0;0.0;0.0;0.002306703990228432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029106075447995856;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5375446399603308;0.0;0.0;0.0;0.0;0.0;0.0;6.880266153927477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06403332437139107;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09350387703797311;0.0;0.0;0.03954163884557775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.936629490750234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C2+, I-, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pb2 C2 I6 N4.02</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.91028916253022;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.007008847625399513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0036134509435609566;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0022906364794585492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013447112205585878;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5988784096535453;0.0;0.0;0.0;0.0;0.0;0.0;0.8727900692476585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3477426938729173;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1076590060545337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.917549088712827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9834704148636457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.448039470013683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4988459025328261;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.083965293893546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.04799787404458;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.1855634631518726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.883977994235179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.768447881992453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.707808533032671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013831480749815052;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.72343220649058;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0027302652335019465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.33370733868952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006985007299587516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.150483452176282;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.2421004661841994;0.0;0.0;0.0;0.0;0.0;2.752834765340453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.2550247225349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.094900600006351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.41953028159181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6556313980223918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029927240437800863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001885745975454142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0982636822901208;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014440593774403723;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001014447645816099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.875587869257334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6561688563360715;0.0;0.0;0.0;0.15464534241637337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22992785723273776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35696839604107516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5011076636329623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7028865711058742;0.0;0.0;0.7060100192439317;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8214244539619916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36549185103230003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.93305262669159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2435971004482174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2915530779461382;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3059500942182165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4159910338536914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003510698500744035;0.24581827312558274;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.425625647230385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.48163723204803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10094024042032565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2788524746151235;0.0;0.0;0.0;0.0;0.0;0.0;0.0022507158826124596;6.56003392836369;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.69755861165844;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0047704748833764426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1087527984908509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3133865498880803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005170845096675828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013102863136721349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0051973059243764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0584936548184571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.597678279620938;0.0;0.0;0.0;0.924458058897482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.737559072004758;1.6715969028257234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010405805960550794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6118059072728093;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1632637688065042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.89210078203398;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.36842227744871;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15010666212683588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.81245024044586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6398283336982135;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30608591059330464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.419412397750882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.35297419639113;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.542998838425575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.027906299279331703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.47474450407917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;87.19358382478627;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.124349334258977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.250349190545982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8781129434087404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.1810176193783075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2401210485131724;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.380695036773549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.881260208340867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.937869299101226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.374572341000516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.543559445232922;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.866060166313138;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.948038027622946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9775996755293104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;45.772496472552696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9205410246211843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.82190928687795;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4497676572292266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.95372798327439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.331276573710164;0.0;0.0;0.0;0.0;0.0;2.238468475730449;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2524948692967867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.617410705303374;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.66653289962384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.534670181779697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.524016286596945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.789833381366513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.849628981180223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6354502078375766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.609123765019072;0.0;0.0;25.99159223535665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.365261517901356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39689786229543295;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6575125425327655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3659772257721323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.58244514387433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.490485358661948;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09027233846597743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5321001350512837;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.422425164012297;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.06065292555827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17650774363558075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8334203834630519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.65197514640526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1449745644241621;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.307885431257722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.266112117807254;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4805701844237977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.947664894740092;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023181342589849014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3433282285162688;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.989730471927711;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04142720506702157;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.285205080730655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1684093234703958;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2399420448635887;11.217811784487424;0.0;0.0;0.0;0.0;4.335109352921521;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9699476218978533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22926235489253152;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.14466351736552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29927573853309436;0.0;0.0;0.0;0.0;2.6527756882117686;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.465151088532094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75982561127162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2119309606443938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.60995258328954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2737318814061418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5468705098940787;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0067515994900407;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I-, Pb2+</t>
+          <t>Br-, Cs+, Pb2+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pb7 I14</t>
+          <t>Cs24 Pb6 Br36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1255688450952142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.061362304580403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.891447628541655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.588357567667962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.972189526393894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.89001233344737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.880662199133376;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3721012892140056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.810445852566154;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.508099063904949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.268263606220112;0.0;3.750882862974014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.552184727766644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.278664253745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.45730163775322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.375309489405967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.48961053997063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.182542724022962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;77.62166986559109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.743284917866099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.456121634550446;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3016641861440021;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.2405694801486575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6471318470628609;0.0;0.0;0.0;0.0;0.0;0.0;15.910509762239206;0.0;0.0;26.90753170657488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.699811105561237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.02796318460586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.51207576810145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4223754846865435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.521540292410998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.122773111546984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.1637947656673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.74925211639745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10343919565513865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9969163193181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.256399083089627;0.0;0.0;1.8268394297526873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2220496446445037;0.0;0.0;0.0;0.0;2.889320529480781;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9943330770037864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.019164094216327678;1.0728175186385782;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01983457699767477;0.0;3.3881408696357873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6462096476684609;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4158438120174597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24865790113104527;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.557993430389857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;70.72642383401929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18676883344127118;0.0;0.0;0.0;2.2944667155414304;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.491572406606476;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.643124412895509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.503467512746083;0.0;0.0;0.0;0.21515255532962033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.97195803487008;0.0;5.6210223849536485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.835955297312082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6822444439328001;0.0;0.0;2.7627718225251736;0.0;1.3200793367764472;0.0;0.0;0.0;0.0;21.807094980050913;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.1827184801555255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.744696273208438;0.0;0.0;0.02894706024980095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2227120988818543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7468724961140696;0.0;0.0;0.0;0.0;0.0;0.0;7.546780722955549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.366465190326336;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.078418417200323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.6384438180248955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002855557128091835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.787798172497765;0.0;0.0;0.9828975742006505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3386410056218185;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.300344978362228;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7052720483540919;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.740094447148179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6411344703081654;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6452257531707593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3419830794639835;0.0;0.0;0.0;0.0;0.30801163504140233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.409503399160553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.870711032337712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8632659726624456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0257467994896725;0.0;3.913044991599623;0.0;0.0;1.6854364930492778;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5994388836335065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.890448536700237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.37488578393737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.09222897330709;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.990588942581112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7629052273966929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3432573060113593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002676941355294032;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.367812610591157;0.0;0.6306149477704671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008651743810155708;0.0;0.0;1.2236707564743687;0.0;0.0;0.0;0.0;0.0;0.0;3.7402587776789176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4750133292495322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.207383993649953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3004660270467311;0.0;1.7018377220466434;0.0;0.0;0.0;0.0;0.0;0.0;3.0474390090921406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17431153172382444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001425120072571038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.639306070107063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.817418466425516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.871164187797343;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.54305370307125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1301632476800476;10.19553211683487;0.0;0.0;3.6982037676712585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.112111128397151;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03757508973411814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.77905734065883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6361160798452008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.42557563483771366;0.0;0.0;0.0;0.0;0.0;0.9938683607967035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6815872985801733;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5530729388848636;0.0;0.41896864041774284;0.41644668013674574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2750618416028345;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024373531050464945;0.2854366814274473;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08800097893129698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15782345129649336;0.0;0.0;0.0;0.0023067039902285803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029106075447994533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.537544639960328;0.0;0.0;0.0;0.0;0.0;0.0;6.880266153927477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0640333243713914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09350387703797318;0.0;0.0;0.03954163884557775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.936629490750234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.81784853925773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07830382568385441;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.15617166574795;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2229930964120572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3879292604470095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.011166907608047;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.229203713710488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.757892198928266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.348525616806914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.120438238945385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6792643462938128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.08688054067551;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3182593444059485;5.013528376836168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.362184480015266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.199465677769432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5383719291709657;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9039961920859457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.779469905310927;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.425638733439761;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21871194489212042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7371552597099578;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1290709126506857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.44023560116307;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.07078581322286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.112433763533692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.672418137849434;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.713448169179467;8.122189900872508;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.089962620599031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07047014279423208;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5001628367356794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1747984697610145;0.19364129995202056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0037481013419296085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39923264542519526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5965382659987546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.119316847935725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6203360841016496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21251255189492255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17934651870295934;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.337471149448878;1.6958288347308532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025340980973343412;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.106017909974536;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36234817525587976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.506010774666145;0.0;0.0;0.0;0.0;0.0;0.0;0.4152668314914629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.825155288517756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7606111554854276;0.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>Br-, Cs+, Pb2+</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Cs4 Pb8 Br20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.88244595100433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.2622960156328356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3422273992212539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.26004085910793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.1515851160831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.15635071408806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.549725791299846;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.316721652862284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7771270889401432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24595427352636126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.043283609699817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.759931815391445;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.14883561129353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.382118087339633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0976610569766563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028336427981097805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011043385652106075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.95920971542892;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013976837811159729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.70856276204145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.783595740900806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I-, Pb2+</t>
+          <t>Cs+, I-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pb1 I2</t>
+          <t>Cs1 I1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.62619591469617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.35021330221088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.84611560666678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.524822268851576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.085271392574146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.26038321145268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.073661087372058;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.677461598942642;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.131339666720727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.302931459384503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.95704717876865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.538039521655765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.8412195877963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4801385310967832;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.997967925944806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;38.07671002595217;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1886044179281807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;33.06463414579197;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;29.912440626617816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7910387699909439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.713871587030752;0.0;0.0;0.0;0.0;0.0;0.0;4.311863874352476;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.084289785329083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5534854128623692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.208380946897757;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.62918655284775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.148928431776953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2318031796972604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.85298122286779;0.0;0.0;0.0;0.0;0.0;5.788042390941174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.50692408976368;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;94.37632319361708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1944220820811946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6364527469877475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.322595418761442;0.0;0.0;0.0;0.0;1.3352995753816255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8029509620874921;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.93245549598534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.250587438092085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.24420683868282;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2710561124610247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0256709447120442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.902470609848404;0.0;0.0;0.0;0.0;0.0;0.0;18.572459830270308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.59497369314498;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.541717142955015;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023040792756052402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8431340304668669;0.0;0.0;0.0;0.0;1.4021067520068227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6208278462439931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1293461277536063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9622587099562636;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06909291262632732;0.7443372463434564;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1545265408693534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008484203152992465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2801022305379226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2804645646351143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4370450482363362;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7673461519099218;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;64.48737281122014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.496387920596781;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.224061740507423;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08188918688456681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7203828299106882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.122815087356501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5752226569814174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8327044856847707;0.0;0.0;0.0;1.5694332590525997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.010623523240388;0.0;0.0;0.0;0.01730902791783539;0.0;0.0;0.0;1.4672377583864402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3497406612928704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41863738670716194;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.10039211538874;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.586126232997353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41588077300315884;0.0;0.0;0.0;0.0;0.0;1.5441595016813168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8288189135206918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.805942829076333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2221014062732687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.349716846195912;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.423737368798083;0.0;0.0;5.304464867357974;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.715949979828672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.272762307424957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.015350407919935576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8057535038045631;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.294904324370956;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39331125915103476;0.0;0.0;0.0;0.0;0.0;0.0;0.7188103051244957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1592067031280873;0.0;0.0;0.0;0.0;0.2446521417000244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.877399194169616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3098536844861913;0.0;0.0;0.0;0.0;0.31982268630741834;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03082509689565017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0017310989533313168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4532641531997743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.981097555160382;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.819020677269073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45634983391194495;0.0;0.0;0.0;0.3346574876040111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.724254343455685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.194669119882972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2510729822106295;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6512344247155027;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1156889682129143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7465759444812454;0.0;0.0;0.0;0.0;0.0;0.4640696303298049;0.0;0.0;0.0;0.0;1.666087344798857;0.0;0.0;0.29115393519558236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003569778621326711;0.0;0.0;0.0;0.0;0.0;0.0;0.1207995692724949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2805751932292209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9195509667923059;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06108677722417667;0.8612866194994966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8860367878268112;0.0;0.0;0.0;0.0;1.9108147472476338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5381052687729941;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.19427307013440986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5853304732237465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7447664667343499;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0786337192932576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.628329010447065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.213071520474902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.914516589392223;0.0;0.0;0.0;0.0;0.0;0.0;2.9186029963107663;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.192375196714258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0585465932850235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.922778899777948;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3058593622882095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>Br-, Cs+, Pb2+</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cs1 Pb1 I3</t>
+          <t>Cs4 Pb4 Br12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4801385310967829;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.997967925944803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;38.07671002595215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1886044179281807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;33.06463414579197;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;29.912440626617798;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7910387699909437;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.71387158703075;0.0;0.0;0.0;0.0;0.0;0.0;4.311863874352473;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0842897853290845;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.55348541286237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.208380946897758;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.62918655284775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.148928431776953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2318031796972604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.85298122286779;0.0;0.0;0.0;0.0;0.0;5.788042390941172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.50692408976368;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;94.37632319361704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1944220820811946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6364527469877483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3225954187614424;0.0;0.0;0.0;0.0;1.3352995753816264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8029509620874923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.932455495985337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.250587438092087;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.244206838682818;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.27105611246102;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0256709447120433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.902470609848404;0.0;0.0;0.0;0.0;0.0;0.0;18.572459830270308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.59497369314497;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.541717142955015;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023040792756052416;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.843134030466867;0.0;0.0;0.0;0.0;1.402106752006822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6208278462439927;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1293461277536063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9622587099562636;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06909291262632732;0.7443372463434561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15452654086935405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008484203152992467;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.280102230537922;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.28046456463511493;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.43704504823633566;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7673461519099222;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;64.48737281122013;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.496387920596781;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.224061740507423;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08188918688456678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.720382829910689;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.122815087356501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5752226569814174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8327044856847703;0.0;0.0;0.0;1.5694332590526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0106235232403877;0.0;0.0;0.0;0.017309027917835344;0.0;0.0;0.0;1.4672377583864415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3497406612928704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4186373867071618;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.100392115388741;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.586126232997352;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41588077300315857;0.0;0.0;0.0;0.0;0.0;1.5441595016813168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8288189135206907;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8059428290763315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2221014062732687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.349716846195912;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.42373736879808;0.0;0.0;5.304464867357977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.715949979828672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.272762307424957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.015350407919935562;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8057535038045631;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2949043243709561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3933112591510352;0.0;0.0;0.0;0.0;0.0;0.0;0.7188103051244955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1592067031280873;0.0;0.0;0.0;0.0;0.2446521417000243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.877399194169616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3098536844861913;0.0;0.0;0.0;0.0;0.3198226863074188;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.030825096895650182;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0017310989533313253;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4532641531997708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.981097555160382;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8190206772690694;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45634983391194495;0.0;0.0;0.0;0.3346574876040111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.724254343455685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.194669119882972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2510729822106295;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6512344247155027;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1156889682129143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7465759444812454;0.0;0.0;0.0;0.0;0.0;0.46406963032980525;0.0;0.0;0.0;0.0;1.666087344798857;0.0;0.0;0.29115393519558197;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0035697786213267206;0.0;0.0;0.0;0.0;0.0;0.0;0.12079956927249452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2805751932292213;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.919550966792305;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06108677722417667;0.8612866194994966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8860367878268098;0.0;0.0;0.0;0.0;1.9108147472476287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5381052687729942;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.19427307013440917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5853304732237472;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7447664667343494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0786337192932576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.62832901044707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.213071520474907;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.914516589392223;0.0;0.0;0.0;0.0;0.0;0.0;2.918602996310766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.192375196714252;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0585465932850233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.922778899777953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3058593622882095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009461045502858513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;49.888825725401624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0019546915643997164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.7420216316579245;15.469691632012237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014269729963884134;0.0071414798922977245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4396467007517668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005709751094417379;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.383784814738014;0.0;23.605801042420538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013443207101242955;0.056306296043173845;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.270369376988757;0.0;28.25213506375039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.151093764835572;4.094706941340934;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006820167220230978;0.0;0.004718863723129362;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0039148046722994705;0.00543076035196772;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.73798434730613;0.0;35.37493878651742;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.05989264322853372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.12540570960921;24.24484318240749;0.0;3.0084881639123044;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866345324380181;0.0;0.0;1.980858795954479;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003424250437429976;0.0031024414618226973;0.008589890824676333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2534001075111448;0.0;0.0;0.12165776371663159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001011258296103786;0.0056131791098248075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.75324737485926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023090087331843114;0.0;0.0;0.003108937756116541;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8024713222552915;6.795979098592115;0.0;6.748734636680589;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0042381796051766465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.380635414045028;0.0;2.3632115995601435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004925324403456857;0.0;0.04876400714784503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>Br-, Pb2+</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 Br12</t>
+          <t>Pb2 Br6</t>
         </is>
       </c>
     </row>

--- a/cif/xrd_dataset.xlsx
+++ b/cif/xrd_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,58 +453,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.62619591469617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.35021330221088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.8461156066668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.524822268851576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.085271392574146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.26038321145266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.07366108737206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.67746159894264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.131339666720727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.30293145938451;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.95704717876865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.538039521655765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.8412195877963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;60.772648706321775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.79708459463224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.983761022139738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.39337761762166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.53122381914707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.27758705481306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;58.394533571757584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.33331077699904;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.65689929911788;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.023763062872227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.82893975698549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.775801462704972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.656489559723644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.05089149357051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0036511261697503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6814505122236387;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;61.71935498619469;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7059661347712005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.774353239578225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.447220148636305;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8470068190669915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2272928086474926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.63796440768303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027656323171619;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.753177251239821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1092350722487083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006711517022958433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.882849482763727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.104753049243803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.438264344136202;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7283800533363085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;24.6169311038308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.190768451845193;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.842311679014182;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.062765364238978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.774806155047359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5119338876855415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.30584230736539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.5735617274677605;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.164437100860815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.093339663875549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12485391967458043;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7089302278520265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>C2+, H+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cs1 Pb1 I3</t>
+          <t>H10 Pb2 C2 I6 N4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.89900231478634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.926795195156092;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.961950947495258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.41813456454129;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.80833430489296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.15413433530972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.6958635322375;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.127545057505414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.039546511286503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.064924223401945;0.0;0.0;0.0;0.0;0.0;0.0;37.29713420053079;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6209289045329114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.854145520961843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.727951432728949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.67518540435224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.311562913466393;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.560843503113833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8669413675337672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.67998931760477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.217274229432988;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.26184268052947;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.566646224191876;0.0;0.0;0.0;0.0;4.191430469109984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.693844138159333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7479672635010035;0.0;0.0;0.0;0.0;4.286494750343962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.342736077215513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9013257390317708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3997542452346496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.779610199335284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0400489625866163;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.544150459633421;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.937119106146305;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.11092142749906;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.3026067828498915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.991716826205682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6058915209941955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4896538121565404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.12025562754937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8237320400581756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8008491553945576;0.0;0.0;0.0;0.0;0.0;0.0;0.3908612051333921;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.658105288345571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.928896295784247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.52828462726179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.045068898127507;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.678936485623479;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.223480633253455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.508491666341683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.867345928235764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;66.58701855007425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.69884103738016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.733836235745876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.344880746319102;0.0;0.0;0.0;0.0;0.0;0.0;45.88701658915128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6496306377991288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.688345954972385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5559650225014248;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.64369666874347;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.23920985216254;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3704271445778926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866145413432432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.775186392842102;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027906450325038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.82739752935132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.013502308380877;0.0;0.0;0.0;0.0;0.0;4.089847938492492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7701842295411968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.053919883539968884;0.0;0.0;0.0;0.0;4.946085264257839;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.289123984510674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3628058763356408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5981656000683385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.91692767595923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4975250173077586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.008289436189099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.95050373164026;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.779793803293966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.59567027976471;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2535517230224706;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.827222201848171;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17974461035686817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7509259735931826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.36237320964535;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3050731398009465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27165112429040833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.327374506539868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.478140393568351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C4+, I-, N3-, Pb2+</t>
+          <t>C2.90+, H+, H-, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pb4 C4 I12 N4</t>
+          <t>H28.8 Pb4 C4.16 I12 N4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4253437303144258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.093336590723283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.072603490828726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.847220821019913;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.801270000189106;0.0;0.0;0.0;0.0;0.0;53.72980826514702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.385160969937754;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.25722080378216;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.206156693067607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.784282596642976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644783246513427;0.0;0.0;0.0;0.0;0.0;0.0;5.293604117733204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.48789478726223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.37305444070712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.980384495666474;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005409773990299752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.453318879459646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.186425977281077;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.29203431899036;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1867988990078178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.163475643351548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47262675012240624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8900696199160283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4124014519671007;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.672242813522296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.06853054864994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.640501627087671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.642811023925522;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.825939626967634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.029484972127726626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.650315772166099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.111548250497705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.405740927478696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.44813857371752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.717194322875708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.322810373193491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.0092516936986495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0530985392480008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.849334056492541;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5790721962148917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2319236686436894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35442603190368316;0.0;0.0;0.0;2.353390259717607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8349613996179064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1866454611875357;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.42775668609656;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.449607551169957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4649097320281994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.356341972855747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.70200432199859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1073202234220405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2555333549865484;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.477009962987491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.375296718213747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.876816321399853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27021662140454106;0.0;0.0;0.0;3.702087614514763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.5211341066657535;0.0;5.226249818295049;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.438786375513013;0.0;0.0;0.0;0.0;0.8907950043797961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.526021720440355;1.5512655532245054;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9502662931406824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.360681544119106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.193671845171038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.306401748075629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.330621453048082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.035294964735323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.14987063256697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.333395659046227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5893604865570172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.147872823501456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011677028563446969;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.426109657697809;3.806359128823931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7209392724148382;0.0;0.0;0.0;0.0;0.8242653977650718;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6232623484996932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0598985712117501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.545261463259707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2643371200607176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5462115651938917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.596266300610673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4288144531289142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6243371119009555;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1051108552446662;0.0;0.0;0.0;0.0;0.0;0.0;0.23950523538506194;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2139889437602276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3543323028073793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.685807779907051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.953303135252368;0.0;0.0;0.0;0.0;0.0;0.4290336727223465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.43171114003563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36834872801081736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.219781497322809;0.9578469414643268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09108052834884077;0.0;4.297447996762094;0.0;0.0;0.0;0.0;0.0;0.0;2.0326512437818867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.134875636362593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5757697809268443;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0351851152920712;0.0;2.8249259059162872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.103520541873389;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0686713470772562;0.0;0.0;0.0;0.0;0.09874028933209862;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3705031460718565;0.0;0.0;0.0;1.3575027481289403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10123354374072413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5035907382996905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4893813348470977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4679891459375372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.267642817468812;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15293141957878895;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.111091980418312;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.424100669628872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.05121852510153323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0020723650727685495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8695061973898355;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.019080247273996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0898439699294708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1615200425812422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00632076600605236;0.0;0.0;0.4451844830488751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1859924531540296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7371111826842137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.014740871284207;0.0;0.0;0.0;0.0;0.0;0.0;0.4287405463491356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2130084526886181;0.0;0.0;0.0;1.0004767760014626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.645146404906514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6689411920742998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012247854306063172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2614480623685951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2435697592057031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2420019963045;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04015612435173573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0740565253969803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.512600326863562;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0309569723838963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.89900231478634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.926795195156096;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.96195094749526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.418134564541292;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.808334304892963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.15413433530973;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.69586353223748;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.127545057505419;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.039546511286506;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.06492422340195;0.0;0.0;0.0;0.0;0.0;0.0;37.297134200530806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6209289045329127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.854145520961842;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.727951432728951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.675185404352256;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.3115629134664;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5608435031138335;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8669413675337685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.679989317604775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.217274229432993;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.261842680529472;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.566646224191874;0.0;0.0;0.0;0.0;4.191430469109985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.693844138159334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.747967263501004;0.0;0.0;0.0;0.0;4.286494750343963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.342736077215515;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9013257390317715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3997542452346496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.77961019933529;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0400489625866165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.544150459633422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.93711910614631;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1109214274990595;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.302606782849896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.991716826205682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6058915209941964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4896538121565417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1202556275493702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.823732040058177;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8008491553945594;0.0;0.0;0.0;0.0;0.0;0.0;0.3908612051333923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6581052883455705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.928896295784245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>C4+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Pb4 C4 I12 N4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.773877126944452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.918719692807358;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.129444759354337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012736043428641815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.685094682098915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.83859011562238;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.28314490815014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.86347763169063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.10836574913644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.116556782994373;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4561164361538053;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.224934235327915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30969539877835567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.790718700126217;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.03212631016696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.68887721574802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.122439108304278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.073665520872815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9323011764375013;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.37216479692273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.602099968585002;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.739393765964719;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3358787258675235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012764332343091014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.560936408455148;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.376342173392581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11608864478146824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5632101558848308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06523291078172769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.442612551383859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.969025937904824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.554557167914704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6630605393585399;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9588117523155584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.689010040360985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15389996547209928;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.709208272629824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.773877126944448;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.918719692807359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.129444759354337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012736043428641784;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.685094682098914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.83859011562238;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.28314490815014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.86347763169063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.10836574913644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.116556782994372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.456116436153805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.224934235327917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3096953987783565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.790718700126219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.032126310166966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.68887721574802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.122439108304278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.073665520872812;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9323011764375035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.37216479692273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6020999685850024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.739393765964715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3358787258675235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012764332343091014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.5609364084551505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.376342173392581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1160886447814682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5632101558848308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06523291078172767;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.442612551383859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.969025937904824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.554557167914703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6630605393585398;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9588117523155593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.689010040360985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1538999654720994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.709208272629822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,92 +521,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;60.77264870632179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.797084594632233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.983761022139738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.39337761762166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.531223819147066;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.27758705481306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;58.394533571757584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.33331077699903;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.65689929911789;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.023763062872224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.82893975698546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.775801462704972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.656489559723646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.050891493570512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0036511261697516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6814505122236392;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;61.71935498619469;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7059661347712005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.774353239578225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.44722014863632;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8470068190669915;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2272928086474932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.63796440768303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027656323171619;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.753177251239824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1092350722487083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0067115170229584365;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8828494827637265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.104753049243806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.438264344136202;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7283800533363085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;24.6169311038308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.190768451845193;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.842311679014183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.062765364238978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7748061550473586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5119338876855415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.305842307365395;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.57356172746776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.164437100860817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.093339663875549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12485391967458025;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7089302278520266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009461045502858513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;49.888825725401624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0019546915643997164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742021631657927;15.469691632012237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014269729963884134;0.0071414798922977245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4396467007517668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00570975109441738;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.383784814738014;0.0;23.605801042420538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013443207101242955;0.05630629604317383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.270369376988757;0.0;28.25213506375039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.151093764835572;4.094706941340934;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006820167220230979;0.0;0.004718863723129362;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003914804672299471;0.0054307603519677256;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.73798434730613;0.0;35.374938786517426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.059892643228533715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.12540570960921;24.24484318240749;0.0;3.0084881639123044;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866345324380181;0.0;0.0;1.9808587959544786;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003424250437429976;0.0031024414618226973;0.008589890824676333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2534001075111448;0.0;0.0;0.12165776371663159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010112582961037857;0.0056131791098248075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.75324737485926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02309008733184311;0.0;0.0;0.003108937756116541;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.8024713222552915;6.795979098592114;0.0;6.748734636680591;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004238179605176646;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.380635414045028;0.0;2.363211599560143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004925324403456857;0.0;0.04876400714784503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C2+, H+, I-, N3-, Pb2+</t>
+          <t>Br-, Pb2+</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>H10 Pb2 C2 I6 N4</t>
+          <t>Pb2 Br6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.93471624641706;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9750452629247827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.733482843644126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.66337721582031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.499183620762416;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.790539891450486;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.79963375153494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.62766841137665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4848158596664996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.507906845979402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.48794818661109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.794310882076141;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.855194795400543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897998266146533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.462554196591306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6752167021877433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.07816317101318;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Br-, C2-, N3-, Pb2+</t>
+          <t>Br-, Cs+</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pb1 C0.9996 Br3 N0.9996</t>
+          <t>Cs1 Br1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.73798255344908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7707122877913652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;65.47238456471902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;68.97773165853332;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.213939807422694;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;42.008412708290166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.96638119945512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9334972433102315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15265898309964243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.38637563365237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.15282329577966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.946725357152708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5685521783952966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.742609235619735;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.43953883294203;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4525964440109016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.569221434083417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.518511060438605;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.051396951527952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2979424380920084;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.898710883408596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.26050735320983;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.814603907097879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.731937099293933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.189893908003967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353585609659415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.851057294882636;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.837314774873962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.657040014737966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.194777146178573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.52463075335405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.050402415855707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.5986445945737415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9140171112568383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.680998978849585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.481380025949363;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.469814860603024;0.0;0.0;17.63605587518571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.16596696908413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.040185667373672;0.0;0.0;0.0;0.0;10.407322072792898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6042133188893986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.14815714089349;0.0;0.0;17.495411262235258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.402243145924597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.090341194816794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10917043611333505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5568182182255637;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.371821116670799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0375165540688736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.347301154565482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.960404180532284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.037101007569485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2826774507450034;0.0;0.0;0.0;0.0;0.004516956878621283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.953942231331314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0974204086048119;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5237758501606984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9952434153213423;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3242014674160603;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.29825144541293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.87606227119006;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.756055213998247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24419271856300437;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.615385484231149;0.0;8.316639183358213;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3024645983745573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.431389162252932;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.512255800896288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.244879091702702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3880117832550933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3890500622388124;0.0;0.0;0.0;0.0;0.0;0.0;23.20993260640489;4.6831566232806185;0.07545713551358137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.124841904052521;0.0;0.08110075478857336;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.583691848118544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.442645876751164;0.0;2.3004161254554165;0.0;1.6269493689715917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.191359154077284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.006383607633172;0.0;0.0;0.0;0.0;0.0;0.0;5.704077525419668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.035301112102985165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5019590911314668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2025825541486184;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.224049753157222;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3454682976285275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2968944383048435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9353917320651972;0.0;1.3104707451184487;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4273943588974702;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.466707757454443;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.721382340016674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8339387394260286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3624915565247668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.387171578070033;0.0;0.0;0.0;0.0;4.39522042739003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5013549435177866;0.0;0.0;0.0;0.0;0.0;5.230332521016073;0.0;0.0;0.0;0.0;0.0;0.0;7.523101466567164;0.5610468022771498;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5527382424331515;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.84113442540366;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.164113643516882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1427475299438;8.405502250682407;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3052950753105605;1.2471717441216905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.671624159069955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008390724659142743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.276978382077559;0.0;0.5099046503688537;0.0;0.0;1.952076024795449;0.0;0.0;0.0;4.124989146237301;0.0;0.0;0.0;0.0;0.0;0.0;0.003930518913876268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9214445014365502;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.167391394210556;4.542160534335991;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9048184481821411;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0725321924271114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11150013472093427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.417133484657347;0.0;0.0;0.0;0.0;0.0;0.0;0.02474195497998439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08132286283391621;0.0;3.5998962943086164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010125002515890522;0.0;3.2614073691224235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742570678072801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.875860428672764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0353081755257416;0.0;0.0;0.0;0.0;0.0;9.95360557399448;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.1360680849795095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0417952266909922;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005395962466747806;0.0;0.0;8.81162279339849;0.0;0.0;0.0;0.0;0.0;0.0;1.277052038434986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5157666472489378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9167596279171472;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.653965426833119;0.0;0.10752453707980404;0.0;0.0;0.0;0.0;0.0;1.3339990853751935;0.3040700157892429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2566402322802396;0.0;0.008065731605772904;0.0;0.011648032861174511;0.0;0.0;0.0;0.0;0.0;0.0234283313027908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0025902926472597667;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013749855189462562;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7620031371172473;0.0;0.0;0.0;4.537041336716278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13128261020582724;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.14116812629887313;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08254100333121277;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.127143477708937;0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Br-, C2+, N3-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pb1 C1 Br3 N2.000004</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.855194795400543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897998266146533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.462554196591306;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.675216702187745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.078163171013166;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49321529162394734;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.78282445920826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.76751592027251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0321593792700816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.548256569757978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.41434722473219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.927959625915378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9334434132622103;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.815250326149808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.129729729250952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.185934393624933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.988162866425572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.379407597688367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.35378145307475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.724160938294176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.459916298985766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.79044861701488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.4195987241093;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.62462861032594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.537694642530122;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.856937916859828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.77005643716127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.398537081668898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.429822938534073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6736251965643616;0.0;0.0;17.739945737987547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.30023487405611;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.90031977222341;0.0;0.0;0.0;0.0;10.62468762305112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.358393798703669;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.15380554159148;0.0;0.0;17.60137590482353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.337722275609078;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.620066025045794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04968038772028877;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.522811959800133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.394976869590604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9826688140297017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.398505311960457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.911019673253394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7514427716386742;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5509662241108937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.440038552547456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12329618437174764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.665324464557418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9855206356198408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.302560082673864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.503802461547725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.84397939566836;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.214946460834565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2987540519967005;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.573954529097393;0.0;8.187100892646617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3628869253769234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644764123722574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.05458280032083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.033914558890271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.297841139490081;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4701619253480915;0.0;0.0;0.0;0.0;0.0;0.0;23.16550824271532;5.109478520588334;0.07484610862474178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6728573009262435;0.0;0.07816235529661321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.755384102594681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.514903881862156;0.0;2.4112471109389997;0.0;1.2560934947087885;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.113387129174327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.994600501105499;0.0;0.0;0.0;0.0;0.0;0.0;5.885409777757111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09769144546790796;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5182731554303428;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8296533976891868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.867257243981802;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.284070336372159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3113785011186798;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7422535104990367;0.0;1.4227350362621174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4655731129261889;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.463316461872721;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.844182185188678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7436263146831542;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3525810855615575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.933212090249408;0.0;0.0;0.0;0.0;3.945567684083461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5469364164694683;0.0;0.0;0.0;0.0;0.0;4.650061680425401;0.0;0.0;0.0;0.0;0.0;0.0;7.325634779478159;0.5691758487740186;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5668861631327824;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.04200442104429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.336888219927403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.104781026126956;8.265887072727248;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.33259101960610155;1.051475627212853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.718496832558779;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02430005270266327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.975629171645432;0.0;0.5154406790757554;0.0;0.0;2.290285630526433;0.0;0.0;0.0;4.182405083798684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9329776619570822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6221305581861365;4.031152834549525;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8957927805497687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.00638180757124;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15672953915338858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3098308055263295;0.0;0.0;0.0;0.0;0.0;0.0;0.014449610605228034;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03747035585100013;0.0;3.5996293381128344;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02348091966024362;0.0;3.2838964823765204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.977412193605425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.432406561951828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9204520179523112;0.0;0.0;0.0;0.0;0.0;9.832935396468548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.062006137284682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02993778200469577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0016647653796353487;0.0;0.0;8.539994752515108;0.0;0.0;0.0;0.0;0.0;0.0;1.117261287408778;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47588811109234314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1222759938662787;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2315717962467623;0.0;0.04690615252351033;0.0;0.0;0.0;0.0;0.0;1.193109427038603;0.30931069116444554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.38178161106873937;0.0;0.0;0.0;0.02686217431746468;0.0;0.0;0.0;0.0;0.0;0.01314317527440818;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0021854261958052556;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.016680478286239756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6162806624952095;0.0;0.0;0.0;4.539629860162514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13713917535722991;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2555721763559353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11481698139778546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2486490866647943;0.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Br-, Cs+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cs1 Br1</t>
+          <t>Cs4.0 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.910289162530205;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.007008847625399531;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003613450943560961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0022906364794585475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013447112205585909;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.598878409653545;0.0;0.0;0.0;0.0;0.0;0.0;0.872790069247658;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3477426938729165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.107659006054533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9175490887128244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9834704148636444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.448039470013682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49884590253282596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.083965293893544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.0479978740445794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.18556346315187;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.8839779942351775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.768447881992452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7078085330326696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013831480749815028;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.72343220649055;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002730265233501933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.333707338689518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006985007299587518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1504834521762803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.242100466184198;0.0;0.0;0.0;0.0;0.0;2.7528347653404523;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.25502472253488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0949006000063495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.419530281591804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6556313980223916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00299272404378009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0018857459754541461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0982636822901206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014440593774403736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010144476458161015;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.875587869257327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6561688563360714;0.0;0.0;0.0;0.1546453424163733;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2299278572327378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35696839604107483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.501107663632962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7028865711058739;0.0;0.0;0.7060100192439311;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8214244539619914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3654918510322999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.933052626691588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2435971004482174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29155307794613805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3059500942182152;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4159910338536905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0035106985007440387;0.24581827312558266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4256256472303843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4816372320480293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10094024042032561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.278852474615123;0.0;0.0;0.0;0.0;0.0;0.0;0.0022507158826124514;6.560033928363689;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.697558611658447;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004770474883376442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10875279849085083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.31338654988808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005170845096675827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013102863136721338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.005197305924376;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.058493654818457114;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.597678279620933;0.0;0.0;0.0;0.9244580588974816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7375590720047578;1.6715969028257227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010405805960550783;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6118059072728089;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.16326376880650414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028336427981097805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011043385652106075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.95920971542892;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013976837811159729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.70856276204145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.783595740900807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I-, Pb2+</t>
+          <t>Cs+, I-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pb7 I14</t>
+          <t>Cs1 I1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8973707919947116;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.751053449228095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.35273669663858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.7879874052104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.16610218564126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.00440909282798;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.190784473460633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.88468592319433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.5140175874321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.29060110042478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.28028544805262;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;90.55304011537464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1182885126085997;0.0;0.0;0.0;0.0;6.311724690919232;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.050655655645843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.016761297418519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.044033301990808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.815111671963905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.272390177209864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.270292768854537;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.58181227297929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.13609852061715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3108403803987263;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.380382702574831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.555898909522582;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3458918896221275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.542466842462274;0.0;0.0;0.0;0.0;0.0;0.0;2.326789794180127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.61927205096258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.903349414238924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.419943553623995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8720625401431168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.962252016000288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.853622541709148;0.0;0.0;0.0;0.0;0.0;0.20215240231107567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.817380564999276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.043860967154665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07820927805024455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4153743873940865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.000986311493698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013129649151754982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.604238807500822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.788518634662633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7452254433816328;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.69298883488468;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2153966801908753;0.0;0.0;0.0;0.0;3.3318839343540727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.896686188553478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.260531757500747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.292842531984585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.482318782129616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.24304178812172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.675382627135594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1244179209440273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.42493985573682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.324374532380244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6934222164274715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4333731684209875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18771834662860204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.437274867190338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9955630388808157;0.0;0.0;0.0;0.0;0.0;1.8555257526633926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.897370791994712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.751053449228106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.352736696638583;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.7879874052104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.16610218564126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.00440909282796;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.190784473460633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.884685923194326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.5140175874321;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.29060110042478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.280285448052616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;90.55304011537464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1182885126085997;0.0;0.0;0.0;0.0;6.311724690919229;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0506556556458424;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.016761297418519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.044033301990808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.815111671963905;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.272390177209864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.27029276885454;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.581812272979285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.13609852061715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3108403803987264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.380382702574833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.555898909522581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3458918896221277;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5424668424622743;0.0;0.0;0.0;0.0;0.0;0.0;2.326789794180127;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.619272050962582;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.903349414238926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.419943553623995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.872062540143118;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.962252016000288;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8536225417091474;0.0;0.0;0.0;0.0;0.0;0.20215240231107567;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.817380564999269;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.043860967154665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07820927805024455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.415374387394086;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.000986311493698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01312964915175493;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.604238807500822;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.78851863466263;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7452254433816332;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.692988834884684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2153966801908753;0.0;0.0;0.0;0.0;3.331883934354073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.896686188553478;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.260531757500746;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.292842531984585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.482318782129617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.243041788121726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.675382627135594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1244179209440273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.42493985573682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.324374532380244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6934222164274715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4333731684209876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18771834662860204;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4372748671903381;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.995563038880815;0.0;0.0;0.0;0.0;0.0;1.8555257526633926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,204 +623,204 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.52828462726181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.045068898127509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.678936485623481;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.223480633253452;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.508491666341687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.86734592823578;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;66.58701855007426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.698841037380165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.73383623574588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.34488074631911;0.0;0.0;0.0;0.0;0.0;0.0;45.887016589151294;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6496306377991297;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.688345954972385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.555965022501427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.64369666874349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.239209852162546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.370427144577893;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9866145413432432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.775186392842103;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.027906450325039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.82739752935132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.013502308380879;0.0;0.0;0.0;0.0;0.0;4.089847938492494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7701842295411969;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.053919883539969064;0.0;0.0;0.0;0.0;4.946085264257839;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.289123984510676;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3628058763356408;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5981656000683384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.916927675959233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4975250173077588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.008289436189098;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.950503731640258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.779793803293964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.595670279764713;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2535517230224715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.827222201848172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1797446103568684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.750925973593183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.362373209645351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.305073139800946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27165112429040833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.327374506539869;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.478140393568353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.892100782034;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.36842227744872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15010666212683577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.812450240445866;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6398283336982128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3060859105933056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4194123977508855;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.352974196391145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.542998838425575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02790629927933171;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.47474450407918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;87.1935838247863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.124349334258987;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.00000000000001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.250349190545997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8781129434087406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.181017619378312;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.240121048513172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.38069503677355;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.881260208340873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.93786929910123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.374572341000526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.543559445232923;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.866060166313142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.948038027622949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.977599675529309;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;45.77249647255271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9205410246211845;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.821909286877954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.449767657229229;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.953727983274392;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3312765737101633;0.0;0.0;0.0;0.0;0.0;2.2384684757304485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2524948692967873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.617410705303378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6665328996238395;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.534670181779703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.5240162865969475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.789833381366516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.849628981180225;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6354502078375766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.609123765019081;0.0;0.0;25.991592235356656;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.365261517901361;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3968978622954339;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6575125425327655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36597722577213243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.582445143874329;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.490485358661953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09027233846597753;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.532100135051284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4224251640123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.060652925558271;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17650774363558067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8334203834630524;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.651975146405261;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1449745644241621;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.307885431257723;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.266112117807257;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.480570184423799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.947664894740094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023181342589849024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3433282285162697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.989730471927714;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04142720506702165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.285205080730663;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1684093234703954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.23994204486358878;11.217811784487427;0.0;0.0;0.0;0.0;4.335109352921521;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9699476218978544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22926235489253172;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.1446635173655215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29927573853309464;0.0;0.0;0.0;0.0;2.65277568821177;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.465151088532101;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75982561127162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2119309606443935;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.60995258328955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2737318814061425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5468705098940783;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0067515994900402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C2.9+, H+, H-, I-, N3-, Pb2+</t>
+          <t>Br-, Cs+, Pb2+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>H28.8 Pb4 C4.16 I12 N4</t>
+          <t>Cs24 Pb6 Br36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.049030089122817554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0024805528009063027;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04003121885180433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6328628239096705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0125833289337143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004310704743095532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0033892413724415;12.975578013575504;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028298038313784964;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08410431351874548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.68513952760429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013280362120851685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.29620502146906;35.105733967028335;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01997941330534164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.026103374463678237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.463611496582948;2.0794969732055284;0.9881349482216337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.017084797002358397;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025537842646877532;0.02927093384756123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008027862834102732;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.17226967590623;30.304252628862425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00929976870388009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012021653674485652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.444945092899188;0.0;16.51255833663142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0410446101898616;0.9467543031568292;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014846120864345612;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010743989488864404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7006058960438837;3.0770889454365613;1.5229768459234725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002904316309698418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014500217472221544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.68584828609278;0.0;15.884552416561183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024863867453332033;0.0;0.0;0.001140233463007121;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.200562547439485;0.0;9.19731947748094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013370950761657433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6392389073191498;0.5026963436600578;0.5430370696307326;0.5259157525760019;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008455748899542717;0.0;0.01158024098017041;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01112898519038598;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023344853037510393;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001427507240564728;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.295021812253891;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0039765990243121755;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001502622626099979;0.0;0.0;0.003368987303830094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8724118761392146;5.9390547995088445</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.81784853925775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07830382568385455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.156171665747951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2229930964120586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.387929260447012;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.011166907608057;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.229203713710492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75789219892827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.00000000000001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.348525616806919;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1204382389453857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.679264346293813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.08688054067553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.31825934440595;5.013528376836168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.36218448001529;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.199465677769433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.538371929170967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9039961920859464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.779469905310927;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.425638733439765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2187119448921209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7371552597099587;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1290709126506875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.440235601163072;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.07078581322286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.112433763533696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.67241813784944;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.713448169179472;8.12218990087251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0899626205990314;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.070470142794232;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5001628367356807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1747984697610154;0.1936412999520206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0037481013419296133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39923264542519543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5965382659987546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.119316847935732;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.62033608410165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2125125518949226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17934651870295945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3374711494488807;1.6958288347308537;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02534098097334338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.106017909974538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3623481752558799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.506010774666147;0.0;0.0;0.0;0.0;0.0;0.0;0.4152668314914623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.825155288517756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.760611155485428;0.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C2+, I-, N3-, Pb2+</t>
+          <t>Br-, Cs+, Pb2+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pb3 C3 I9 N6.03</t>
+          <t>Cs4 Pb8 Br20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.799312027524952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.319815436208234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.594858895056817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02605015942579995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.196757296862879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;67.50269585790801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.06208809711083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.60515504271124;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;49.312350222584;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.756041155605168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9010833399351519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6271669685187287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2509977191090378;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.269668900713379;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.094169620501773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.7667725028146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.820198775759938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.131687999250861;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9168347848626914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.4343577590584236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.427758363020308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.603416135778609;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.073804754963722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001914810617296404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.504500966443883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.56762591499483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04365510651327237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45618415494266534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11204230674419333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.698799593011438;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.294637831890899;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.255076221097293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49658050194423287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7087427029989926;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.128919787111293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01703455169988997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.63177919956874;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41058780201542955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9888955470052752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;34.73798255344909;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.770712287791365;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;65.47238456471902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;68.97773165853333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.213939807422697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;42.00841270829018;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.96638119945512;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9334972433102315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1526589830996425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.386375633652358;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.15282329577966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.946725357152708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C2+, I-, N3-, Pb2+</t>
+          <t>Br-, C2+, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pb2 C2 I6 N4.02</t>
+          <t>Pb1 C1 Br3 N2.000004</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5685521783952967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.742609235619735;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.43953883294203;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4525964440109016;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.569221434083417;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.51851106043859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.051396951527952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.297942438092009;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.898710883408596;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.26050735320983;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.814603907097879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.731937099293933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.189893908003967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353585609659415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.851057294882647;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.837314774873974;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.657040014737966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.19477714617857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.52463075335405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.05040241585571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.5986445945737415;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9140171112568516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.6809989788496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.481380025949356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.469814860603024;0.0;0.0;17.636055875185704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.165966969084131;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.040185667373672;0.0;0.0;0.0;0.0;10.407322072792896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.604213318889399;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.14815714089349;0.0;0.0;17.495411262235265;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.402243145924597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;44.09034119481679;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10917043611333486;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.556818218225563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.371821116670799;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.037516554068873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.347301154565482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.960404180532284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0371010075694813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2826774507450036;0.0;0.0;0.0;0.0;0.004516956878621283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9539422313313026;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09742040860481266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5237758501607024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9952434153213426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3242014674160602;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.29825144541293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.87606227119006;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.756055213998247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24419271856300215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.615385484231149;0.0;8.316639183358213;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3024645983745573;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.43138916225293;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.512255800896287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.244879091702701;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3880117832550933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3890500622388124;0.0;0.0;0.0;0.0;0.0;0.0;23.20993260640489;4.6831566232806265;0.07545713551358137;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.124841904052521;0.0;0.08110075478857338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.583691848118544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.442645876751164;0.0;2.3004161254554165;0.0;1.6269493689715908;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.191359154077285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.006383607633172;0.0;0.0;0.0;0.0;0.0;0.0;5.704077525419668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03530111210298568;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5019590911314672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2025825541486188;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.224049753157209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3454682976285275;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.296894438304848;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9353917320651972;0.0;1.3104707451184539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4273943588974707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4667077574544406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.721382340016674;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8339387394260286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3624915565247668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.387171578070033;0.0;0.0;0.0;0.0;4.3952204273900195;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5013549435177866;0.0;0.0;0.0;0.0;0.0;5.2303325210160745;0.0;0.0;0.0;0.0;0.0;0.0;7.523101466567164;0.5610468022771461;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5527382424331462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.84113442540366;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.164113643516896;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.142747529943799;8.405502250682412;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3052950753105607;1.247171744121692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.671624159069955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008390724659142975;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.276978382077559;0.0;0.5099046503688541;0.0;0.0;1.9520760247954496;0.0;0.0;0.0;4.124989146237301;0.0;0.0;0.0;0.0;0.0;0.0;0.003930518913876065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9214445014365463;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.167391394210556;4.542160534335993;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9048184481821442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.072532192427111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.11150013472093427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.417133484657348;0.0;0.0;0.0;0.0;0.0;0.0;0.02474195497998439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08132286283391583;0.0;3.599896294308624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010125002515890527;0.0;3.2614073691224212;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.742570678072801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.875860428672763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0353081755257394;0.0;0.0;0.0;0.0;0.0;9.953605573994473;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.13606808497951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.041795226690992233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005395962466747612;0.0;0.0;8.811622793398497;0.0;0.0;0.0;0.0;0.0;0.0;1.2770520384349882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5157666472489367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9167596279171462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.653965426833118;0.0;0.10752453707980379;0.0;0.0;0.0;0.0;0.0;1.333999085375198;0.3040700157892431;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25664023228023963;0.0;0.00806573160577294;0.0;0.01164803286117451;0.0;0.0;0.0;0.0;0.0;0.02342833130279074;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002590292647259588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01374985518946285;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7620031371172518;0.0;0.0;0.0;4.537041336716278;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1312826102058273;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.14116812629887315;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08254100333121264;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1271434777089375;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.934716246417064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9750452629247827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;57.733482843644126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.66337721582031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.499183620762413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.79053989145048;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.79963375153494;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.62766841137665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4848158596664994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.507906845979402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.487948186611089;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.794310882076147;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>Br-, C2-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Pb1 C0.9996 Br3 N0.9996</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49321529162394745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.78282445920826;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;52.76751592027251;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0321593792700816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.548256569757978;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;54.41434722473219;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.92795962591538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.93344341326221;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.815250326149808;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.129729729250952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.185934393624933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.988162866425572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.379407597688367;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.353781453074753;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.724160938294187;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.459916298985764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.790448617014878;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.419598724109303;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.62462861032594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.53769464253012;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.856937916859827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.7700564371612693;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.398537081668897;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.429822938534073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6736251965643616;0.0;0.0;17.739945737987547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.30023487405611;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.90031977222341;0.0;0.0;0.0;0.0;10.62468762305112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.358393798703669;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.153805541591478;0.0;0.0;17.601375904823534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.337722275609067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.62006602504581;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04968038772028876;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.522811959800133;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3949768695906033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9826688140297017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.398505311960457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.911019673253394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7514427716386742;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5509662241108944;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.440038552547455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12329618437174769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6653244645574186;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9855206356198405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30256008267386414;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.503802461547718;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;63.84397939566837;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.214946460834565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2987540519967033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.573954529097393;0.0;8.187100892646617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36288692537692346;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644764123722574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.054582800320833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.033914558890284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2978411394900804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4701619253480915;0.0;0.0;0.0;0.0;0.0;0.0;23.165508242715326;5.109478520588334;0.07484610862474178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6728573009262435;0.0;0.07816235529661322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.755384102594681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.514903881862156;0.0;2.4112471109389997;0.0;1.2560934947087883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.113387129174328;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.994600501105498;0.0;0.0;0.0;0.0;0.0;0.0;5.885409777757111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09769144546790792;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5182731554303427;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8296533976891868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.867257243981814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.284070336372159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3113785011186776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7422535104990367;0.0;1.422735036262117;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4655731129261889;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.46331646187272146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.844182185188678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7436263146831544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3525810855615575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.933212090249408;0.0;0.0;0.0;0.0;3.9455676840834637;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5469364164694683;0.0;0.0;0.0;0.0;0.0;4.650061680425399;0.0;0.0;0.0;0.0;0.0;0.0;7.325634779478159;0.5691758487740188;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5668861631327825;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.04200442104429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.336888219927405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.104781026126954;8.265887072727253;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3325910196061016;1.0514756272128531;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.718496832558779;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02430005270266359;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.975629171645432;0.0;0.515440679075756;0.0;0.0;2.290285630526433;0.0;0.0;0.0;4.182405083798684;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.932977661957082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6221305581861358;4.031152834549526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8957927805497682;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0063818075712394;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15672953915338866;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.309830805526331;0.0;0.0;0.0;0.0;0.0;0.0;0.01444961060522804;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.037470355851000524;0.0;3.599629338112838;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02348091966024358;0.0;3.28389648237652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.977412193605425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.432406561951829;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.920452017952314;0.0;0.0;0.0;0.0;0.0;9.832935396468551;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.0620061372846825;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02993778200469577;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0016647653796353;0.0;0.0;8.539994752515113;0.0;0.0;0.0;0.0;0.0;0.0;1.1172612874087766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4758881110923413;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.122275993866279;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.231571796246761;0.0;0.04690615252351033;0.0;0.0;0.0;0.0;0.0;1.1931094270385998;0.3093106911644457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3817816110687394;0.0;0.0;0.0;0.026862174317464675;0.0;0.0;0.0;0.0;0.0;0.01314317527440816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0021854261958052933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.016680478286239763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6162806624952095;0.0;0.0;0.0;4.539629860162514;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.13713917535722994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25557217635593565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1148169813977855;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2486490866647943;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.049030089122817554;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.00248055280090626;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04003121885180435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.6328628239096705;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012583328933714272;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.004310704743095561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0033892413724415;12.975578013575504;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028298038313784968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08410431351874553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;83.68513952760429;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01328036212085157;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.29620502146907;35.10573396702833;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01997941330534164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02610337446367823;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4636114965829483;2.0794969732055284;0.9881349482216337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01708479700235857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025537842646877543;0.029270933847561298;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008027862834102766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.172269675906218;30.304252628862425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009299768703880105;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012021653674485612;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.4449450928991885;0.0;16.51255833663142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0410446101898616;0.946754303156829;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014846120864345617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.010743989488864384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7006058960438837;3.0770889454365618;1.5229768459234725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002904316309698424;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014500217472221591;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.685848286092779;0.0;15.884552416561183;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024863867453332085;0.0;0.0;0.0011402334630070882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.200562547439485;0.0;9.197319477480939;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013370950761657436;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6392389073191499;0.5026963436600578;0.5430370696307325;0.5259157525760019;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008455748899542747;0.0;0.011580240980170442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011128985190385982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023344853037510594;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014275072405646985;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.295021812253891;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0039765990243121815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0015026226260999806;0.0;0.0;0.003368987303830126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.872411876139214;5.9390547995088445</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>C2+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cs4.0 Pb4 I12</t>
+          <t>Pb3 C3 I9 N6.03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.882445951004325;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.262296015632835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.34222739922125384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.260040859107924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.151585116083099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.156350714088056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.549725791299846;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.31672165286228;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.777127088940143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24595427352636123;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.043283609699813;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.759931815391444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.14883561129354;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.38211808733963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0976610569766563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4253437303144258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.093336590723283;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;46.072603490828726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.847220821019914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.801270000189106;0.0;0.0;0.0;0.0;0.0;53.72980826514703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.385160969937758;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.25722080378216;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.206156693067603;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.784282596642976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.644783246513425;0.0;0.0;0.0;0.0;0.0;0.0;5.293604117733205;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.48789478726223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.37305444070712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.980384495666467;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005409773990299751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.453318879459639;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.186425977281072;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;75.29203431899036;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1867988990078178;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.163475643351548;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.47262675012240585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8900696199160287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.412401451967102;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.672242813522296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.06853054864994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.640501627087671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.64281102392552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8259396269676325;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.02948497212772617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.650315772166099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.11154825049772;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.405740927478696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.44813857371752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.7171943228757085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.32281037319349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.009251693698653;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.053098539248003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8493340564925391;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5790721962148924;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.231923668643689;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35442603190368316;0.0;0.0;0.0;2.3533902597176066;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8349613996179064;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1866454611875326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.427756686096558;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.449607551169956;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.464909732028201;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.356341972855747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;71.70200432199859;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1073202234220405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2555333549865484;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.477009962987491;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.375296718213747;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.876816321399853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.27021662140454134;0.0;0.0;0.0;3.702087614514763;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.521134106665751;0.0;5.226249818295049;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.438786375513011;0.0;0.0;0.0;0.0;0.8907950043797961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.526021720440355;1.551265553224505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.950266293140683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.360681544119106;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.193671845171038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.306401748075629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.330621453048082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.035294964735327;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.14987063256697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.333395659046224;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5893604865570132;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.147872823501456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011677028563446972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.42610965769781;3.806359128823928;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7209392724148397;0.0;0.0;0.0;0.0;0.8242653977650715;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.623262348499692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0598985712117501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.545261463259707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2643371200607176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5462115651938917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.596266300610672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.42881445312891453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6243371119009555;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1051108552446673;0.0;0.0;0.0;0.0;0.0;0.0;0.2395052353850623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2139889437602276;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3543323028073793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.685807779907051;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.953303135252368;0.0;0.0;0.0;0.0;0.0;0.4290336727223466;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.43171114003563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36834872801081736;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2197814973228094;0.9578469414643243;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09108052834884056;0.0;4.297447996762094;0.0;0.0;0.0;0.0;0.0;0.0;2.0326512437818853;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1348756363625925;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5757697809268425;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.035185115292071;0.0;2.8249259059162903;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.103520541873389;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0686713470772564;0.0;0.0;0.0;0.0;0.09874028933209868;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3705031460718565;0.0;0.0;0.0;1.3575027481289386;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10123354374072552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5035907382996858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4893813348470961;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4679891459375372;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.267642817468814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1529314195787877;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.111091980418308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.424100669628872;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.051218525101533206;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0020723650727685495;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.869506197389834;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.019080247274001;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08984396992947088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1615200425812422;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006320766006052365;0.0;0.0;0.4451844830488751;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1859924531540291;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7371111826842145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.014740871284207;0.0;0.0;0.0;0.0;0.0;0.0;0.42874054634913544;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21300845268861807;0.0;0.0;0.0;1.000476776001462;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6451464049065136;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6689411920742995;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.012247854306062999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.26144806236859597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2435697592057035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2420019963045;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04015612435173547;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0740565253969794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.512600326863561;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0309569723838963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I-, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pb1 I2</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.12556884509521388;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.061362304580403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.891447628541655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5883575676679595;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.972189526393894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.89001233344737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.880662199133383;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3721012892140056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.810445852566163;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.508099063904945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.26826360622011;0.0;3.750882862974013;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.55218472776664;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.278664253745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.457301637753215;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.375309489405967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.489610539970627;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.18254272402296;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;77.62166986559109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.743284917866098;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.456121634550445;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3016641861440021;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.240569480148657;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6471318470628602;0.0;0.0;0.0;0.0;0.0;0.0;15.910509762239206;0.0;0.0;26.90753170657487;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.699811105561231;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.027963184605854;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.51207576810145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.422375484686546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.521540292410998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.122773111546977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.1637947656673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.74925211639746;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10343919565513865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.996916319318101;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.256399083089627;0.0;0.0;1.8268394297526844;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2220496446445055;0.0;0.0;0.0;0.0;2.889320529480782;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9943330770037873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.019164094216327678;1.07281751863858;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01983457699767473;0.0;3.3881408696357904;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6462096476684593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4158438120174546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24865790113104821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.557993430389857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;70.72642383401929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18676883344127118;0.0;0.0;0.0;2.2944667155414304;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.491572406606474;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.643124412895509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.5034675127460835;0.0;0.0;0.0;0.21515255532962033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.97195803487008;0.0;5.621022384953653;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.835955297312082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6822444439328001;0.0;0.0;2.762771822525175;0.0;1.320079336776447;0.0;0.0;0.0;0.0;21.807094980050902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.182718480155525;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.744696273208437;0.0;0.0;0.028947060249800996;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2227120988818543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.74687249611407;0.0;0.0;0.0;0.0;0.0;0.0;7.546780722955549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.36646519032634;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.078418417200323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.638443818024898;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002855557128091835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.7877981724977654;0.0;0.0;0.9828975742006502;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.338641005621816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3003449783622274;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7052720483540916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7400944471481776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6411344703081652;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6452257531707624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.341983079463984;0.0;0.0;0.0;0.0;0.3080116350414024;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.409503399160553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.8707110323377125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8632659726624451;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.025746799489674;0.0;3.9130449915996253;0.0;0.0;1.6854364930492791;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5994388836335067;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.890448536700234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.374885783937371;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.09222897330709;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.9905889425811125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7629052273966931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3432573060113593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0026769413552940875;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.367812610591156;0.0;0.6306149477704671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008651743810155842;0.0;0.0;1.2236707564743692;0.0;0.0;0.0;0.0;0.0;0.0;3.7402587776789162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.475013329249532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.207383993649951;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.300466027046731;0.0;1.7018377220466434;0.0;0.0;0.0;0.0;0.0;0.0;3.0474390090921455;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17431153172382444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001425120072571191;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6393060701070707;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.817418466425513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.871164187797334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.54305370307125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.130163247680047;10.195532116834874;0.0;0.0;3.6982037676712607;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.112111128397151;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03757508973411821;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.779057340658831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6361160798452008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4255756348377136;0.0;0.0;0.0;0.0;0.0;0.9938683607967042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6815872985801729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.553072938884863;0.0;0.4189686404177421;0.4164466801367465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.275061841602836;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024373531050464945;0.285436681427447;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08800097893129769;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15782345129649256;0.0;0.0;0.0;0.002306703990228432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029106075447995856;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5375446399603308;0.0;0.0;0.0;0.0;0.0;0.0;6.880266153927477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06403332437139107;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09350387703797311;0.0;0.0;0.03954163884557775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.936629490750234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.799312027524952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.319815436208234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.594858895056816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.026050159425799968;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.196757296862879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;67.50269585790801;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.06208809711083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;25.605155042711246;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;49.312350222583994;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.75604115560517;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9010833399351518;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6271669685187287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.25099771910903823;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.2696689007133815;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.094169620501773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.766772502814604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.820198775759938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.131687999250863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9168347848626914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.4343577590584236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4277583630203097;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.60341613577861;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.073804754963722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001914810617296409;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.504500966443879;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.56762591499483;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.043655106513272326;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45618415494266534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1120423067441933;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.698799593011437;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.294637831890899;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2550762210972946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.49658050194423287;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7087427029989937;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.128919787111291;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01703455169988997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6317791995687405;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41058780201542955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9888955470052752;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cs+, I-, Pb2+</t>
+          <t>C2+, I-, N3-, Pb2+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 I12</t>
+          <t>Pb2 C2 I6 N4.02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.89210078203398;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;32.36842227744871;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15010666212683588;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.81245024044586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6398283336982135;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.30608591059330464;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.419412397750882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;62.35297419639113;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.542998838425575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.027906299279331703;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.47474450407917;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;87.19358382478627;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.124349334258977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.250349190545982;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8781129434087404;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.1810176193783075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2401210485131724;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.380695036773549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.881260208340867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.937869299101226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.374572341000516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.543559445232922;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.866060166313138;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.948038027622946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.9775996755293104;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;45.772496472552696;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9205410246211843;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.82190928687795;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4497676572292266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.95372798327439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.331276573710164;0.0;0.0;0.0;0.0;0.0;2.238468475730449;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2524948692967867;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.617410705303374;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.66653289962384;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.534670181779697;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.524016286596945;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.789833381366513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.849628981180223;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6354502078375766;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.609123765019072;0.0;0.0;25.99159223535665;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.365261517901356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39689786229543295;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6575125425327655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3659772257721323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.58244514387433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.490485358661948;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09027233846597743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5321001350512837;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.422425164012297;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.06065292555827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17650774363558075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8334203834630519;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.65197514640526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1449745644241621;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.307885431257722;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.266112117807254;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.4805701844237977;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.947664894740092;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023181342589849014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3433282285162688;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.989730471927711;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.04142720506702157;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.285205080730655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1684093234703958;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2399420448635887;11.217811784487424;0.0;0.0;0.0;0.0;4.335109352921521;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9699476218978533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22926235489253152;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.14466351736552;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.29927573853309436;0.0;0.0;0.0;0.0;2.6527756882117686;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.465151088532094;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.75982561127162;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2119309606443938;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;33.60995258328954;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2737318814061418;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5468705098940787;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.0067515994900407;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;37.91028916253022;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.007008847625399513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0036134509435609566;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0022906364794585492;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013447112205585878;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5988784096535453;0.0;0.0;0.0;0.0;0.0;0.0;0.8727900692476585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3477426938729173;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1076590060545337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.917549088712827;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9834704148636457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.448039470013683;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4988459025328261;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.083965293893546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.04799787404458;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.1855634631518726;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.883977994235179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.768447881992453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.707808533032671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013831480749815052;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.72343220649058;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0027302652335019465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.33370733868952;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.006985007299587516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.150483452176282;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.2421004661841994;0.0;0.0;0.0;0.0;0.0;2.752834765340453;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.2550247225349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.094900600006351;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.41953028159181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6556313980223918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029927240437800863;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001885745975454142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0982636822901208;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0014440593774403723;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001014447645816099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;17.875587869257334;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6561688563360715;0.0;0.0;0.0;0.15464534241637337;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.22992785723273776;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.35696839604107516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5011076636329623;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7028865711058742;0.0;0.0;0.7060100192439317;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8214244539619916;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36549185103230003;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.93305262669159;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2435971004482174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2915530779461382;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3059500942182165;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4159910338536914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003510698500744035;0.24581827312558274;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.425625647230385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.48163723204803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10094024042032565;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2788524746151235;0.0;0.0;0.0;0.0;0.0;0.0;0.0022507158826124596;6.56003392836369;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.69755861165844;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0047704748833764426;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1087527984908509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3133865498880803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005170845096675828;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013102863136721349;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0051973059243764;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0584936548184571;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.597678279620938;0.0;0.0;0.0;0.924458058897482;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.737559072004758;1.6715969028257234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0010405805960550794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6118059072728093;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1632637688065042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>I-, Pb2+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cs24 Pb6 Br36</t>
+          <t>Pb7 I14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.81784853925773;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07830382568385441;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.15617166574795;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2229930964120572;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3879292604470095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.011166907608047;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.229203713710488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.757892198928266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;99.99999999999999;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.348525616806914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.120438238945385;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6792643462938128;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;51.08688054067551;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.3182593444059485;5.013528376836168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;43.362184480015266;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.199465677769432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5383719291709657;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.9039961920859457;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.779469905310927;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.425638733439761;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21871194489212042;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7371552597099578;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1290709126506857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.44023560116307;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.07078581322286;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.112433763533692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;22.672418137849434;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.713448169179467;8.122189900872508;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.089962620599031;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.07047014279423208;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.5001628367356794;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1747984697610145;0.19364129995202056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0037481013419296085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39923264542519526;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5965382659987546;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.119316847935725;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.6203360841016496;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.21251255189492255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17934651870295934;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.337471149448878;1.6958288347308532;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.025340980973343412;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.106017909974536;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.36234817525587976;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.506010774666145;0.0;0.0;0.0;0.0;0.0;0.0;0.4152668314914629;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.825155288517756;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7606111554854276;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1255688450952142;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;31.061362304580403;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;48.891447628541655;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.588357567667962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.972189526393894;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;50.89001233344737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.880662199133376;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3721012892140056;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.810445852566154;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.508099063904949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.268263606220112;0.0;3.750882862974014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;15.552184727766644;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.278664253745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.45730163775322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.375309489405967;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.48961053997063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.182542724022962;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;77.62166986559109;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.743284917866099;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.456121634550446;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3016641861440021;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.2405694801486575;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6471318470628609;0.0;0.0;0.0;0.0;0.0;0.0;15.910509762239206;0.0;0.0;26.90753170657488;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.699811105561237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.02796318460586;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.51207576810145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.4223754846865435;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.521540292410998;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;21.122773111546984;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;14.1637947656673;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.74925211639745;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.10343919565513865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.9969163193181;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.256399083089627;0.0;0.0;1.8268394297526873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2220496446445037;0.0;0.0;0.0;0.0;2.889320529480781;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9943330770037864;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.019164094216327678;1.0728175186385782;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.01983457699767477;0.0;3.3881408696357873;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6462096476684609;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4158438120174597;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24865790113104527;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.557993430389857;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;70.72642383401929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.18676883344127118;0.0;0.0;0.0;2.2944667155414304;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.491572406606476;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.643124412895509;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.503467512746083;0.0;0.0;0.0;0.21515255532962033;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.97195803487008;0.0;5.6210223849536485;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.835955297312082;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6822444439328001;0.0;0.0;2.7627718225251736;0.0;1.3200793367764472;0.0;0.0;0.0;0.0;21.807094980050913;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.1827184801555255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.744696273208438;0.0;0.0;0.02894706024980095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2227120988818543;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7468724961140696;0.0;0.0;0.0;0.0;0.0;0.0;7.546780722955549;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.366465190326336;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.078418417200323;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.6384438180248955;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002855557128091835;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.787798172497765;0.0;0.0;0.9828975742006505;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.3386410056218185;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.300344978362228;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7052720483540919;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.740094447148179;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6411344703081654;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6452257531707593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.3419830794639835;0.0;0.0;0.0;0.0;0.30801163504140233;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.409503399160553;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.870711032337712;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8632659726624456;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.0257467994896725;0.0;3.913044991599623;0.0;0.0;1.6854364930492778;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5994388836335065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.890448536700237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.37488578393737;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.09222897330709;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.990588942581112;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7629052273966929;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.3432573060113593;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.002676941355294032;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.367812610591157;0.0;0.6306149477704671;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008651743810155708;0.0;0.0;1.2236707564743687;0.0;0.0;0.0;0.0;0.0;0.0;3.7402587776789176;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4750133292495322;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.207383993649953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3004660270467311;0.0;1.7018377220466434;0.0;0.0;0.0;0.0;0.0;0.0;3.0474390090921406;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.17431153172382444;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.001425120072571038;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.639306070107063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.817418466425516;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.871164187797343;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.54305370307125;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1301632476800476;10.19553211683487;0.0;0.0;3.6982037676712585;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.112111128397151;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03757508973411814;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.77905734065883;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.6361160798452008;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.42557563483771366;0.0;0.0;0.0;0.0;0.0;0.9938683607967035;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6815872985801733;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5530729388848636;0.0;0.41896864041774284;0.41644668013674574;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2750618416028345;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.024373531050464945;0.2854366814274473;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08800097893129698;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.15782345129649336;0.0;0.0;0.0;0.0023067039902285803;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0029106075447994533;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.537544639960328;0.0;0.0;0.0;0.0;0.0;0.0;6.880266153927477;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0640333243713914;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.09350387703797318;0.0;0.0;0.03954163884557775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.936629490750234;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cs4 Pb8 Br20</t>
+          <t>Cs4 Pb4 I12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.028336427981097805;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.011043385652106075;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;18.95920971542892;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.013976837811159729;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.70856276204145;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.783595740900806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;26.88244595100433;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.2622960156328356;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3422273992212539;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.26004085910793;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.1515851160831;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;36.15635071408806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.549725791299846;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.316721652862284;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7771270889401432;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.24595427352636126;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.043283609699817;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;4.759931815391445;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.14883561129353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.382118087339633;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.0976610569766563;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cs+, I-</t>
+          <t>I-, Pb2+</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cs1 I1</t>
+          <t>Pb1 I2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4801385310967832;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.997967925944806;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;38.07671002595217;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1886044179281807;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;33.06463414579197;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;29.912440626617816;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7910387699909439;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.713871587030752;0.0;0.0;0.0;0.0;0.0;0.0;4.311863874352476;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.084289785329083;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5534854128623692;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.208380946897757;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.62918655284775;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.148928431776953;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.2318031796972604;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.85298122286779;0.0;0.0;0.0;0.0;0.0;5.788042390941174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;56.50692408976368;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;94.37632319361708;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.1944220820811946;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.6364527469877475;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.322595418761442;0.0;0.0;0.0;0.0;1.3352995753816255;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8029509620874921;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.93245549598534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.250587438092085;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.24420683868282;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2710561124610247;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0256709447120442;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;19.902470609848404;0.0;0.0;0.0;0.0;0.0;0.0;18.572459830270308;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;30.59497369314498;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;40.541717142955015;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.023040792756052402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.8431340304668669;0.0;0.0;0.0;0.0;1.4021067520068227;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6208278462439931;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1293461277536063;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9622587099562636;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06909291262632732;0.7443372463434564;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.1545265408693534;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.008484203152992465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.2801022305379226;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2804645646351143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.4370450482363362;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.7673461519099218;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;64.48737281122014;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.496387920596781;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.224061740507423;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.08188918688456681;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7203828299106882;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.122815087356501;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.5752226569814174;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.8327044856847707;0.0;0.0;0.0;1.5694332590525997;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.010623523240388;0.0;0.0;0.0;0.01730902791783539;0.0;0.0;0.0;1.4672377583864402;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3497406612928704;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41863738670716194;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.10039211538874;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;6.586126232997353;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.41588077300315884;0.0;0.0;0.0;0.0;0.0;1.5441595016813168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8288189135206918;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.805942829076333;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2221014062732687;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.349716846195912;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.423737368798083;0.0;0.0;5.304464867357974;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;8.715949979828672;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.272762307424957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.015350407919935576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8057535038045631;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.294904324370956;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.39331125915103476;0.0;0.0;0.0;0.0;0.0;0.0;0.7188103051244957;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.1592067031280873;0.0;0.0;0.0;0.0;0.2446521417000244;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.877399194169616;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.3098536844861913;0.0;0.0;0.0;0.0;0.31982268630741834;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.03082509689565017;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0017310989533313168;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4532641531997743;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.981097555160382;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.819020677269073;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.45634983391194495;0.0;0.0;0.0;0.3346574876040111;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.724254343455685;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.194669119882972;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;3.2510729822106295;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.6512344247155027;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.1156889682129143;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7465759444812454;0.0;0.0;0.0;0.0;0.0;0.4640696303298049;0.0;0.0;0.0;0.0;1.666087344798857;0.0;0.0;0.29115393519558236;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.003569778621326711;0.0;0.0;0.0;0.0;0.0;0.0;0.1207995692724949;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.2805751932292209;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.9195509667923059;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.06108677722417667;0.8612866194994966;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.8860367878268112;0.0;0.0;0.0;0.0;1.9108147472476338;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.5381052687729941;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.19427307013440986;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.5853304732237465;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.7447664667343499;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0786337192932576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.628329010447065;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;10.213071520474902;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.914516589392223;0.0;0.0;0.0;0.0;0.0;0.0;2.9186029963107663;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.192375196714258;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.0585465932850235;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.922778899777948;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;2.3058593622882095;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
+          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.62619591469617;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;39.35021330221088;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;35.84611560666678;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;23.524822268851576;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;20.085271392574146;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;76.26038321145268;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;13.073661087372058;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;9.677461598942642;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;16.131339666720727;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;27.302931459384503;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;5.95704717876865;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;11.538039521655765;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;12.8412195877963;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Br-, Cs+, Pb2+</t>
+          <t>Cs+, I-, Pb2+</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cs4 Pb4 Br12</t>
+          <t>Cs1 Pb1 I3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.009461045502858513;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;100.0;49.888825725401624;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0019546915643997164;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;7.7420216316579245;15.469691632012237;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.014269729963884134;0.0071414798922977245;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;1.4396467007517668;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.005709751094417379;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;47.383784814738014;0.0;23.605801042420538;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0013443207101242955;0.056306296043173845;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;28.270369376988757;0.0;28.25213506375039;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.0;0.